--- a/_schematics/Project Outputs for EEG_circuit/BOM/Bill of Materials-EEG_circuit.xlsx
+++ b/_schematics/Project Outputs for EEG_circuit/BOM/Bill of Materials-EEG_circuit.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B30717F-C580-452C-A347-C429DB195B97}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6148270F-7AA4-4D1D-8CA3-BF6F817FFF98}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part List Report" sheetId="3" r:id="rId1"/>
@@ -125,7 +125,7 @@
     <t>2020-02-11</t>
   </si>
   <si>
-    <t>8:45:23 AM</t>
+    <t>1:42:53 PM</t>
   </si>
   <si>
     <t>Bill of Materials For Project [EEG_circuit.PrjPcb] (No PCB Document Selected)</t>
@@ -434,13 +434,13 @@
     <t>Supplier Currency 1</t>
   </si>
   <si>
-    <t>C:\Users\Public\Documents\Altium\Projects\EEG_circuit\EEG_circuit\Group49\_schematics\EEG_circuit.PrjPcb</t>
+    <t>C:\Users\dmerl\Documents\4th Year\ELEC491\repo\Group49\_schematics\EEG_circuit.PrjPcb</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>2020-02-11 8:45:23 AM</t>
+    <t>2020-02-11 1:42:53 PM</t>
   </si>
   <si>
     <t>Bill of Materials</t>
@@ -2145,27 +2145,27 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="31" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="73" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" style="73" customWidth="1"/>
+    <col min="10" max="10" width="18.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.54296875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.54296875" style="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="1"/>
+    <col min="15" max="15" width="8.26953125" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="49"/>
       <c r="B1" s="50"/>
       <c r="C1" s="51"/>
@@ -2203,7 +2203,7 @@
       <c r="N2" s="12"/>
       <c r="O2" s="60"/>
     </row>
-    <row r="3" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="52"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
@@ -2228,7 +2228,7 @@
       <c r="N3" s="36"/>
       <c r="O3" s="61"/>
     </row>
-    <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="52"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
@@ -2276,7 +2276,7 @@
       <c r="N5" s="36"/>
       <c r="O5" s="61"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="52"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="E8" s="22">
         <f ca="1">NOW()</f>
-        <v>43872.365029398148</v>
+        <v>43872.571857986113</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="20"/>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="O28" s="62"/>
     </row>
-    <row r="29" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="52"/>
       <c r="B29" s="77" t="s">
         <v>20</v>
@@ -3249,7 +3249,7 @@
       <c r="N29" s="36"/>
       <c r="O29" s="61"/>
     </row>
-    <row r="30" spans="1:15" ht="25.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="52"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="O31" s="61"/>
     </row>
-    <row r="32" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="55"/>
       <c r="B32" s="27"/>
       <c r="C32" s="11"/>
@@ -3512,60 +3512,60 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="K7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D10" r:id="rId2" tooltip="Component" display="'JST" xr:uid="{94807658-BFA0-4368-9F3C-257E47FD46C3}"/>
-    <hyperlink ref="D11" r:id="rId3" tooltip="Component" display="'Global Connector Technology" xr:uid="{FCF2EDD6-4E7C-4EB0-A31B-290113ABD387}"/>
-    <hyperlink ref="D12" r:id="rId4" tooltip="Component" display="'Wurth Electronics" xr:uid="{C13E1788-E266-4B55-A7E6-CFB78EE7519E}"/>
-    <hyperlink ref="D13" r:id="rId5" tooltip="Component" display="'Wurth Electronics" xr:uid="{07C294A8-0742-4F6A-98A0-975AD3AF75CD}"/>
-    <hyperlink ref="D14" r:id="rId6" tooltip="Component" display="'Wurth Electronics" xr:uid="{ECAE8289-1DEA-47EF-9583-750B5C3B5E0D}"/>
-    <hyperlink ref="D15" r:id="rId7" tooltip="Component" display="'Panasonic" xr:uid="{0D93523F-C1D1-4D4D-9C71-13EF2C87BD59}"/>
-    <hyperlink ref="D16" r:id="rId8" tooltip="Component" display="'Yageo" xr:uid="{80FC095A-EDEF-4A2B-B97E-F91A8AFE4606}"/>
-    <hyperlink ref="D17" r:id="rId9" tooltip="Component" display="'Murata, Samsung, KEMET" xr:uid="{3E1FAFC2-36F1-455F-9444-03A9963A2CD5}"/>
-    <hyperlink ref="D18" r:id="rId10" tooltip="Component" display="'TDK" xr:uid="{8F6855AB-DEC7-47D8-8FB0-8317FAD4FC1B}"/>
-    <hyperlink ref="D19" r:id="rId11" tooltip="Component" display="'Vishay Lite-On" xr:uid="{E54373CF-30E1-4AFC-84BA-1F59C1EFF583}"/>
-    <hyperlink ref="D20" r:id="rId12" tooltip="Component" display="'Yageo" xr:uid="{61CDD703-7298-4740-97E3-292E3E4DAFFD}"/>
-    <hyperlink ref="D21" r:id="rId13" tooltip="Component" display="'ECS International" xr:uid="{154CDB13-D3B2-400E-9F0A-263313D98371}"/>
-    <hyperlink ref="D22" r:id="rId14" tooltip="Component" display="'ITT C&amp;K" xr:uid="{D88D9677-500A-47F2-B2A3-4FD4AA91107A}"/>
-    <hyperlink ref="D23" r:id="rId15" tooltip="Component" display="'Diodes" xr:uid="{3EAFEBC5-DB13-434F-A7D4-0FCA256095CE}"/>
-    <hyperlink ref="D24" r:id="rId16" tooltip="Component" display="'Microchip" xr:uid="{8C39FD1A-D8A2-479A-9A83-5DE94565E7B3}"/>
-    <hyperlink ref="D25" r:id="rId17" tooltip="Component" display="'Vishay Semiconductors" xr:uid="{65901704-EB07-4AC4-BBBC-BE5639374B48}"/>
-    <hyperlink ref="D26" r:id="rId18" tooltip="Component" display="'Texas Instruments" xr:uid="{A7F2E39E-43ED-4C3E-8578-3299A32BD6D4}"/>
-    <hyperlink ref="D27" r:id="rId19" tooltip="Component" display="'Texas Instruments" xr:uid="{4E84FB60-97A1-4926-A272-1097F93EA105}"/>
-    <hyperlink ref="E10" r:id="rId20" tooltip="Manufacturer" display="'B2B-PH-SM4-TBT(LF)(SN)" xr:uid="{656B85E8-AD24-42CD-88B9-47085A2F84E1}"/>
-    <hyperlink ref="E11" r:id="rId21" tooltip="Manufacturer" display="'MEM2067-02-180-00-A" xr:uid="{407D36C2-84F6-4F6F-B864-A5B41F3C021D}"/>
-    <hyperlink ref="E12" r:id="rId22" tooltip="Manufacturer" display="'450404015514" xr:uid="{7586FAC5-4A0A-4D39-A836-E6E742E0B9B2}"/>
-    <hyperlink ref="E13" r:id="rId23" tooltip="Manufacturer" display="'61300621121" xr:uid="{1D51899B-66A4-4A8D-91DC-FF4DA38839C1}"/>
-    <hyperlink ref="E14" r:id="rId24" tooltip="Manufacturer" display="'61301211121" xr:uid="{F36C3002-C3AD-4855-BCE8-23AA3169D31E}"/>
-    <hyperlink ref="E15" r:id="rId25" tooltip="Manufacturer" display="'EXB-N8V162JX" xr:uid="{4A4EBBDD-13ED-4C62-A47C-9D29E91CCAF2}"/>
-    <hyperlink ref="E16" r:id="rId26" tooltip="Manufacturer" display="'RC0402FR-071ML, RC0402JR-070RL, RC0402FR-07453KL, RC0402FR-07100KL, RC0402JR-071M6L, RC0402JR-07180KL, RC0402FR-0710KL, RC0402FR-071KL, RC0402JR-07470KL" xr:uid="{AD9A7706-5D20-47F2-9722-8C8479E859B5}"/>
-    <hyperlink ref="E17" r:id="rId27" tooltip="Manufacturer" display="'GRM153R61A105ME95D, CL05A104KP5NNNC, CL05B152KB5NNNC, GRM155R61A475MEAAD, CL05A106MP5NUNC, GRM31CR60J107ME39L, C0402C180K5RAC7867" xr:uid="{FECA9DFE-B076-4B7B-A603-440BA29D3CED}"/>
-    <hyperlink ref="E18" r:id="rId28" tooltip="Manufacturer" display="'MLZ1608A2R2WT000, MLZ1608M4R7WT000" xr:uid="{1B1F8E71-D0DA-47D8-A9D5-F3CB49F07D75}"/>
-    <hyperlink ref="E19" r:id="rId29" tooltip="Manufacturer" display="'LTST-C193TBKT-5A" xr:uid="{1576B5EA-84D9-40A8-86A8-666C41C77CD4}"/>
-    <hyperlink ref="E20" r:id="rId30" tooltip="Manufacturer" display="'CA0612KRX7R9BB102" xr:uid="{890E9033-4FC0-47CC-B684-E1DFAC61EE1F}"/>
-    <hyperlink ref="E21" r:id="rId31" tooltip="Manufacturer" display="'ECS-80-18-30-JGN-TR" xr:uid="{43217FD5-8EC5-47A3-B083-7AD130B2B672}"/>
-    <hyperlink ref="E22" r:id="rId32" tooltip="Manufacturer" display="'PTS810SJK250SMTRLFS" xr:uid="{64E3F94D-A75B-43DE-8F23-988C7CCC232A}"/>
-    <hyperlink ref="E23" r:id="rId33" tooltip="Manufacturer" display="'AP3417CKTR-G1" xr:uid="{81093F81-38D5-4AA3-BD6C-212A63EB2E34}"/>
-    <hyperlink ref="E24" r:id="rId34" tooltip="Manufacturer" display="'PIC32MX250F128B-I/SS" xr:uid="{E0BDC278-9999-43BA-965E-FB27626DBD1A}"/>
-    <hyperlink ref="E25" r:id="rId35" tooltip="Manufacturer" display="'GSOT04C-G3-08" xr:uid="{EC45D2F3-34E3-4E4D-92F4-9DDB4F390CFC}"/>
-    <hyperlink ref="E26" r:id="rId36" tooltip="Manufacturer" display="'ADS1299IPAGR" xr:uid="{D1D0F11A-4830-43B3-92FB-CF5780ABBC27}"/>
-    <hyperlink ref="E27" r:id="rId37" tooltip="Manufacturer" display="'TPS61073DDCR" xr:uid="{480BFBBB-8A7E-4F03-A3AA-8D7058566DB8}"/>
-    <hyperlink ref="J10" r:id="rId38" tooltip="Supplier" display="'455-2872-6-ND" xr:uid="{BABB3C35-836D-4A41-8256-8FBCD49A620E}"/>
-    <hyperlink ref="J11" r:id="rId39" tooltip="Supplier" display="'2073-MEM2067-02-180-00-ACT-ND" xr:uid="{8C5B88E2-AF1C-4BD8-9188-D4115AD53345}"/>
-    <hyperlink ref="J12" r:id="rId40" tooltip="Supplier" display="'732-13665-6-ND" xr:uid="{85FE3E9A-EE3A-4F5A-A422-19B36523F8A4}"/>
-    <hyperlink ref="J13" r:id="rId41" tooltip="Supplier" display="'732-5295-ND" xr:uid="{98840115-5A68-47DB-A367-E8A0166962AD}"/>
-    <hyperlink ref="J14" r:id="rId42" tooltip="Supplier" display="'732-5323-ND" xr:uid="{C88ECFE9-A204-4BC2-AAA4-D3D7B5158D98}"/>
-    <hyperlink ref="J15" r:id="rId43" tooltip="Supplier" display="'Y10162DKR-ND" xr:uid="{AD587701-53A7-4A8D-B4DC-E021216837E5}"/>
-    <hyperlink ref="J16" r:id="rId44" tooltip="Supplier" display="'311-1.00MLRCT-ND, 311-0.0JRDKR-ND, YAG3164DKR-ND, 311-100KLRCT-ND, YAG3284DKR-ND, 311-180KJRDKR-ND, 311-10.0KLRDKR-ND, 311-1.00KLRDKR-ND, 311-470KJRDKR-ND" xr:uid="{8A6323A5-0E5D-4B94-8C8E-E767083141ED}"/>
-    <hyperlink ref="J17" r:id="rId45" tooltip="Supplier" display="'490-14577-6-ND, 1276-1022-6-ND, 1276-1521-6-ND, 490-14306-6-ND, 1276-1450-6-ND, 490-4539-6-ND, 399-19371-6-ND" xr:uid="{ADA0337B-3247-479D-AFE3-9074C37171DD}"/>
-    <hyperlink ref="J18" r:id="rId46" tooltip="Supplier" display="'445-6385-6-ND, 445-6390-6-ND" xr:uid="{00C2EB9F-C310-4814-AC65-450BC4CCF352}"/>
-    <hyperlink ref="J19" r:id="rId47" tooltip="Supplier" display="'160-1827-1-ND" xr:uid="{84E446E0-B19C-4126-9CCF-2A6B4853C616}"/>
-    <hyperlink ref="J20" r:id="rId48" tooltip="Supplier" display="'311-2073-6-ND" xr:uid="{B35093E6-91B3-4536-BDD1-9A63A002598C}"/>
-    <hyperlink ref="J21" r:id="rId49" tooltip="Supplier" display="'XC2103DKR-ND" xr:uid="{165A2CF2-4F8B-432A-9738-DEB35F0A89A6}"/>
-    <hyperlink ref="J22" r:id="rId50" tooltip="Supplier" display="'CKN10503DKR-ND" xr:uid="{042D0870-19E1-4458-A91D-17DCE210616E}"/>
-    <hyperlink ref="J23" r:id="rId51" tooltip="Supplier" display="'AP3417CKTR-G1DIDKR-ND" xr:uid="{8C9CB2FC-F551-4DF9-995C-25C862EBFB43}"/>
-    <hyperlink ref="J24" r:id="rId52" tooltip="Supplier" display="'PIC32MX250F128B-I/SS-ND" xr:uid="{8A81D2F5-CD9D-489A-BF65-15C962C841FB}"/>
-    <hyperlink ref="J25" r:id="rId53" tooltip="Supplier" display="'GSOT04C-G3-08GIDKR-ND" xr:uid="{DD1AA63E-8036-4E42-985E-F701872B293A}"/>
-    <hyperlink ref="J26" r:id="rId54" tooltip="Supplier" display="'296-34818-6-ND" xr:uid="{A2572D68-B727-48FD-B3FB-20FF874647D1}"/>
-    <hyperlink ref="J27" r:id="rId55" tooltip="Supplier" display="'296-21898-2-ND" xr:uid="{39B2CF25-0814-4268-800C-3442D154E8AC}"/>
+    <hyperlink ref="D10" r:id="rId2" tooltip="Component" display="'JST" xr:uid="{E17CCF0C-CA77-4AF2-AC5B-80A8951316D4}"/>
+    <hyperlink ref="D11" r:id="rId3" tooltip="Component" display="'Global Connector Technology" xr:uid="{8AD69FE7-D361-4A06-8B5D-58220CAE4C48}"/>
+    <hyperlink ref="D12" r:id="rId4" tooltip="Component" display="'Wurth Electronics" xr:uid="{821447E0-395D-447C-B3F0-786D1C72C06C}"/>
+    <hyperlink ref="D13" r:id="rId5" tooltip="Component" display="'Wurth Electronics" xr:uid="{F0F42E58-5414-4872-8D42-CDABAEF31BAF}"/>
+    <hyperlink ref="D14" r:id="rId6" tooltip="Component" display="'Wurth Electronics" xr:uid="{16D82F29-F51E-4BCE-A73E-D291925847FB}"/>
+    <hyperlink ref="D15" r:id="rId7" tooltip="Component" display="'Panasonic" xr:uid="{994E6F34-49CE-4442-9B91-844E590CCE3F}"/>
+    <hyperlink ref="D16" r:id="rId8" tooltip="Component" display="'Yageo" xr:uid="{9EEA62B6-FD2C-4591-8DB8-B9AC15816F20}"/>
+    <hyperlink ref="D17" r:id="rId9" tooltip="Component" display="'Murata, Samsung, KEMET" xr:uid="{AC4D51EB-6330-47A9-85E2-F2C866DD3B46}"/>
+    <hyperlink ref="D18" r:id="rId10" tooltip="Component" display="'TDK" xr:uid="{E93501FA-C544-465E-8376-435256E848E3}"/>
+    <hyperlink ref="D19" r:id="rId11" tooltip="Component" display="'Vishay Lite-On" xr:uid="{7A671E01-2B06-4F3E-B243-47F2A70C2282}"/>
+    <hyperlink ref="D20" r:id="rId12" tooltip="Component" display="'Yageo" xr:uid="{2364ED70-3793-4940-B3A6-E9380E02ECED}"/>
+    <hyperlink ref="D21" r:id="rId13" tooltip="Component" display="'ECS International" xr:uid="{6027C9AA-A15B-4F31-A5BE-A3C38C5CDF6B}"/>
+    <hyperlink ref="D22" r:id="rId14" tooltip="Component" display="'ITT C&amp;K" xr:uid="{802C777E-E8C0-4B9B-99A5-B9C133ABF11E}"/>
+    <hyperlink ref="D23" r:id="rId15" tooltip="Component" display="'Diodes" xr:uid="{E681CCC8-B3B8-4E5B-9052-DA8AB41B9FB8}"/>
+    <hyperlink ref="D24" r:id="rId16" tooltip="Component" display="'Microchip" xr:uid="{EB27A58A-2076-4830-8122-635583F22CDC}"/>
+    <hyperlink ref="D25" r:id="rId17" tooltip="Component" display="'Vishay Semiconductors" xr:uid="{8CBE7A95-84B7-4B4C-8980-FFBA63433157}"/>
+    <hyperlink ref="D26" r:id="rId18" tooltip="Component" display="'Texas Instruments" xr:uid="{3EDBDE57-5D16-4116-B073-CAB1D5E12CE3}"/>
+    <hyperlink ref="D27" r:id="rId19" tooltip="Component" display="'Texas Instruments" xr:uid="{AB61C659-5E4A-4E7F-8091-A0C1C8A98685}"/>
+    <hyperlink ref="E10" r:id="rId20" tooltip="Manufacturer" display="'B2B-PH-SM4-TBT(LF)(SN)" xr:uid="{C398540D-2562-4D55-8B25-69F89142FD02}"/>
+    <hyperlink ref="E11" r:id="rId21" tooltip="Manufacturer" display="'MEM2067-02-180-00-A" xr:uid="{05FF8958-9B7D-403C-89E7-831A1FF967FE}"/>
+    <hyperlink ref="E12" r:id="rId22" tooltip="Manufacturer" display="'450404015514" xr:uid="{C6AA90D6-775A-40A6-BF1C-2942D5E6BAC3}"/>
+    <hyperlink ref="E13" r:id="rId23" tooltip="Manufacturer" display="'61300621121" xr:uid="{E46A51EF-0CD3-4D0E-B11C-04CD6F3B27D7}"/>
+    <hyperlink ref="E14" r:id="rId24" tooltip="Manufacturer" display="'61301211121" xr:uid="{4126F58B-64EB-48E9-ADA3-53E87A432258}"/>
+    <hyperlink ref="E15" r:id="rId25" tooltip="Manufacturer" display="'EXB-N8V162JX" xr:uid="{851C9639-2AA7-4051-AD7C-9A846F6278FE}"/>
+    <hyperlink ref="E16" r:id="rId26" tooltip="Manufacturer" display="'RC0402FR-071ML, RC0402JR-070RL, RC0402FR-07453KL, RC0402FR-07100KL, RC0402JR-071M6L, RC0402JR-07180KL, RC0402FR-0710KL, RC0402FR-071KL, RC0402JR-07470KL" xr:uid="{66CFB7AA-0BAB-4440-9E47-2DE073582567}"/>
+    <hyperlink ref="E17" r:id="rId27" tooltip="Manufacturer" display="'GRM153R61A105ME95D, CL05A104KP5NNNC, CL05B152KB5NNNC, GRM155R61A475MEAAD, CL05A106MP5NUNC, GRM31CR60J107ME39L, C0402C180K5RAC7867" xr:uid="{7B70886D-5D47-4155-862F-114A40059966}"/>
+    <hyperlink ref="E18" r:id="rId28" tooltip="Manufacturer" display="'MLZ1608A2R2WT000, MLZ1608M4R7WT000" xr:uid="{DAAED366-F176-4783-8CFF-43FD9E11AA20}"/>
+    <hyperlink ref="E19" r:id="rId29" tooltip="Manufacturer" display="'LTST-C193TBKT-5A" xr:uid="{9DE918CC-D989-4B79-95F4-D12F6AC24A03}"/>
+    <hyperlink ref="E20" r:id="rId30" tooltip="Manufacturer" display="'CA0612KRX7R9BB102" xr:uid="{61B81365-FDA8-488A-87FC-0DCFE4CF8AAB}"/>
+    <hyperlink ref="E21" r:id="rId31" tooltip="Manufacturer" display="'ECS-80-18-30-JGN-TR" xr:uid="{ABD2BEFF-A50F-4DE1-9A40-C0E80D0D0B85}"/>
+    <hyperlink ref="E22" r:id="rId32" tooltip="Manufacturer" display="'PTS810SJK250SMTRLFS" xr:uid="{28CD9B91-DAAD-469F-9D31-2215DBBF2763}"/>
+    <hyperlink ref="E23" r:id="rId33" tooltip="Manufacturer" display="'AP3417CKTR-G1" xr:uid="{8AF274D8-87EE-46AB-8E52-0B9F7033901E}"/>
+    <hyperlink ref="E24" r:id="rId34" tooltip="Manufacturer" display="'PIC32MX250F128B-I/SS" xr:uid="{27C7DF5D-0D4A-4C31-ACA8-E4F4FC12EB99}"/>
+    <hyperlink ref="E25" r:id="rId35" tooltip="Manufacturer" display="'GSOT04C-G3-08" xr:uid="{490F205B-33CF-4390-896C-147AF756FE1E}"/>
+    <hyperlink ref="E26" r:id="rId36" tooltip="Manufacturer" display="'ADS1299IPAGR" xr:uid="{E1146058-33FF-4048-BCB6-4A64824CDCC4}"/>
+    <hyperlink ref="E27" r:id="rId37" tooltip="Manufacturer" display="'TPS61073DDCR" xr:uid="{39446364-C491-4226-B9C7-FD1CD60DE094}"/>
+    <hyperlink ref="J10" r:id="rId38" tooltip="Supplier" display="'455-2872-6-ND" xr:uid="{4D0A465C-FAA5-4639-A6E5-2630AFA5906F}"/>
+    <hyperlink ref="J11" r:id="rId39" tooltip="Supplier" display="'2073-MEM2067-02-180-00-ACT-ND" xr:uid="{CF1B3474-8070-409E-AE77-372DEBD666CB}"/>
+    <hyperlink ref="J12" r:id="rId40" tooltip="Supplier" display="'732-13665-6-ND" xr:uid="{62161FBE-5A25-4BD4-8BB8-838F78D0145A}"/>
+    <hyperlink ref="J13" r:id="rId41" tooltip="Supplier" display="'732-5295-ND" xr:uid="{8E9AF0C5-F08B-4DC0-8B33-58852FCD6F63}"/>
+    <hyperlink ref="J14" r:id="rId42" tooltip="Supplier" display="'732-5323-ND" xr:uid="{0232E260-FF16-49E6-94D2-3EE612F3884B}"/>
+    <hyperlink ref="J15" r:id="rId43" tooltip="Supplier" display="'Y10162DKR-ND" xr:uid="{319B4216-CE46-4571-80E9-4698BA7B9000}"/>
+    <hyperlink ref="J16" r:id="rId44" tooltip="Supplier" display="'311-1.00MLRCT-ND, 311-0.0JRDKR-ND, YAG3164DKR-ND, 311-100KLRCT-ND, YAG3284DKR-ND, 311-180KJRDKR-ND, 311-10.0KLRDKR-ND, 311-1.00KLRDKR-ND, 311-470KJRDKR-ND" xr:uid="{B12550CE-B39B-4151-8E94-17794D27192F}"/>
+    <hyperlink ref="J17" r:id="rId45" tooltip="Supplier" display="'490-14577-6-ND, 1276-1022-6-ND, 1276-1521-6-ND, 490-14306-6-ND, 1276-1450-6-ND, 490-4539-6-ND, 399-19371-6-ND" xr:uid="{B24B7F2B-AA0F-4145-9CB6-E9ACCAE3E0B1}"/>
+    <hyperlink ref="J18" r:id="rId46" tooltip="Supplier" display="'445-6385-6-ND, 445-6390-6-ND" xr:uid="{35DAEC10-9C18-4104-B3F4-B91E10C36CB5}"/>
+    <hyperlink ref="J19" r:id="rId47" tooltip="Supplier" display="'160-1827-1-ND" xr:uid="{7881D3C6-51DB-42B0-AEAE-197FAB418104}"/>
+    <hyperlink ref="J20" r:id="rId48" tooltip="Supplier" display="'311-2073-6-ND" xr:uid="{F1F67F2D-CC8B-4549-BDC9-8527F20B7A32}"/>
+    <hyperlink ref="J21" r:id="rId49" tooltip="Supplier" display="'XC2103DKR-ND" xr:uid="{03A34192-D2AC-4C9A-A1E6-721BA70C6D50}"/>
+    <hyperlink ref="J22" r:id="rId50" tooltip="Supplier" display="'CKN10503DKR-ND" xr:uid="{D929463E-86F6-40C8-8D0F-114B511E46E4}"/>
+    <hyperlink ref="J23" r:id="rId51" tooltip="Supplier" display="'AP3417CKTR-G1DIDKR-ND" xr:uid="{98E19703-1CE9-4F9E-A3A3-5ADD5EC75BB6}"/>
+    <hyperlink ref="J24" r:id="rId52" tooltip="Supplier" display="'PIC32MX250F128B-I/SS-ND" xr:uid="{77972A37-6726-42E0-B48B-92AB90F2FFDA}"/>
+    <hyperlink ref="J25" r:id="rId53" tooltip="Supplier" display="'GSOT04C-G3-08GIDKR-ND" xr:uid="{B3E61186-8A97-4E9D-B186-1ABC21F6144C}"/>
+    <hyperlink ref="J26" r:id="rId54" tooltip="Supplier" display="'296-34818-6-ND" xr:uid="{80687301-253A-4487-830A-ACAB4135DFD4}"/>
+    <hyperlink ref="J27" r:id="rId55" tooltip="Supplier" display="'296-21898-2-ND" xr:uid="{C690A03B-FCC0-4086-B2FE-8F2615814C97}"/>
   </hyperlinks>
   <pageMargins left="0.47244094488188981" right="0.35433070866141736" top="0.59055118110236227" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId56"/>
@@ -3586,13 +3586,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.5546875" customWidth="1"/>
+    <col min="2" max="2" width="110.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>5</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>9</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>11</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>13</v>
       </c>

--- a/_schematics/Project Outputs for EEG_circuit/BOM/Bill of Materials-EEG_circuit.xlsx
+++ b/_schematics/Project Outputs for EEG_circuit/BOM/Bill of Materials-EEG_circuit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6148270F-7AA4-4D1D-8CA3-BF6F817FFF98}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C014CE96-6B86-47F6-9EF6-94FE79D4393C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2840" yWindow="2840" windowWidth="6400" windowHeight="3470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part List Report" sheetId="3" r:id="rId1"/>
@@ -122,10 +122,10 @@
     <t>None</t>
   </si>
   <si>
-    <t>2020-02-11</t>
-  </si>
-  <si>
-    <t>1:42:53 PM</t>
+    <t>2020-02-13</t>
+  </si>
+  <si>
+    <t>1:51:41 PM</t>
   </si>
   <si>
     <t>Bill of Materials For Project [EEG_circuit.PrjPcb] (No PCB Document Selected)</t>
@@ -440,7 +440,7 @@
     <t>60</t>
   </si>
   <si>
-    <t>2020-02-11 1:42:53 PM</t>
+    <t>2020-02-13 1:51:41 PM</t>
   </si>
   <si>
     <t>Bill of Materials</t>
@@ -2330,11 +2330,11 @@
       </c>
       <c r="D8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="E8" s="22">
         <f ca="1">NOW()</f>
-        <v>43872.571857986113</v>
+        <v>43874.577807175927</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="20"/>
@@ -2462,20 +2462,14 @@
       <c r="J11" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="K11" s="38">
-        <v>1</v>
-      </c>
+      <c r="K11" s="38"/>
       <c r="L11" s="38">
-        <v>2217</v>
-      </c>
-      <c r="M11" s="76">
-        <v>1.19</v>
-      </c>
-      <c r="N11" s="76">
-        <v>1.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
       <c r="O11" s="104" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2512,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="37">
-        <v>2530</v>
+        <v>2505</v>
       </c>
       <c r="M12" s="75">
         <v>0.75</v>
@@ -2558,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="38">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="M13" s="76">
         <v>0.54</v>
@@ -2828,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="38">
-        <v>136805</v>
+        <v>134140</v>
       </c>
       <c r="M19" s="76">
         <v>0.45</v>
@@ -2920,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="38">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="M21" s="76">
         <v>0.69</v>
@@ -2966,7 +2960,7 @@
         <v>2</v>
       </c>
       <c r="L22" s="37">
-        <v>69290</v>
+        <v>69240</v>
       </c>
       <c r="M22" s="75">
         <v>0.3</v>
@@ -3012,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="38">
-        <v>33012</v>
+        <v>33002</v>
       </c>
       <c r="M23" s="76">
         <v>0.41</v>
@@ -3150,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="37">
-        <v>1280</v>
+        <v>1265</v>
       </c>
       <c r="M26" s="75">
         <v>53.84</v>
@@ -3218,13 +3212,13 @@
       <c r="J28" s="39"/>
       <c r="K28" s="43">
         <f>SUM(K10:K27)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L28" s="42"/>
       <c r="M28" s="42"/>
       <c r="N28" s="42">
         <f>SUM(N10:N27)</f>
-        <v>67.77000000000001</v>
+        <v>66.58</v>
       </c>
       <c r="O28" s="62"/>
     </row>
@@ -3269,7 +3263,7 @@
       <c r="K30" s="36"/>
       <c r="L30" s="78">
         <f>N28</f>
-        <v>67.77000000000001</v>
+        <v>66.58</v>
       </c>
       <c r="M30" s="79"/>
       <c r="N30" s="89" t="s">
@@ -3293,7 +3287,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="80">
         <f>L30/H30</f>
-        <v>67.77000000000001</v>
+        <v>66.58</v>
       </c>
       <c r="M31" s="80"/>
       <c r="N31" s="90" t="s">
@@ -3512,60 +3506,60 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="K7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D10" r:id="rId2" tooltip="Component" display="'JST" xr:uid="{E17CCF0C-CA77-4AF2-AC5B-80A8951316D4}"/>
-    <hyperlink ref="D11" r:id="rId3" tooltip="Component" display="'Global Connector Technology" xr:uid="{8AD69FE7-D361-4A06-8B5D-58220CAE4C48}"/>
-    <hyperlink ref="D12" r:id="rId4" tooltip="Component" display="'Wurth Electronics" xr:uid="{821447E0-395D-447C-B3F0-786D1C72C06C}"/>
-    <hyperlink ref="D13" r:id="rId5" tooltip="Component" display="'Wurth Electronics" xr:uid="{F0F42E58-5414-4872-8D42-CDABAEF31BAF}"/>
-    <hyperlink ref="D14" r:id="rId6" tooltip="Component" display="'Wurth Electronics" xr:uid="{16D82F29-F51E-4BCE-A73E-D291925847FB}"/>
-    <hyperlink ref="D15" r:id="rId7" tooltip="Component" display="'Panasonic" xr:uid="{994E6F34-49CE-4442-9B91-844E590CCE3F}"/>
-    <hyperlink ref="D16" r:id="rId8" tooltip="Component" display="'Yageo" xr:uid="{9EEA62B6-FD2C-4591-8DB8-B9AC15816F20}"/>
-    <hyperlink ref="D17" r:id="rId9" tooltip="Component" display="'Murata, Samsung, KEMET" xr:uid="{AC4D51EB-6330-47A9-85E2-F2C866DD3B46}"/>
-    <hyperlink ref="D18" r:id="rId10" tooltip="Component" display="'TDK" xr:uid="{E93501FA-C544-465E-8376-435256E848E3}"/>
-    <hyperlink ref="D19" r:id="rId11" tooltip="Component" display="'Vishay Lite-On" xr:uid="{7A671E01-2B06-4F3E-B243-47F2A70C2282}"/>
-    <hyperlink ref="D20" r:id="rId12" tooltip="Component" display="'Yageo" xr:uid="{2364ED70-3793-4940-B3A6-E9380E02ECED}"/>
-    <hyperlink ref="D21" r:id="rId13" tooltip="Component" display="'ECS International" xr:uid="{6027C9AA-A15B-4F31-A5BE-A3C38C5CDF6B}"/>
-    <hyperlink ref="D22" r:id="rId14" tooltip="Component" display="'ITT C&amp;K" xr:uid="{802C777E-E8C0-4B9B-99A5-B9C133ABF11E}"/>
-    <hyperlink ref="D23" r:id="rId15" tooltip="Component" display="'Diodes" xr:uid="{E681CCC8-B3B8-4E5B-9052-DA8AB41B9FB8}"/>
-    <hyperlink ref="D24" r:id="rId16" tooltip="Component" display="'Microchip" xr:uid="{EB27A58A-2076-4830-8122-635583F22CDC}"/>
-    <hyperlink ref="D25" r:id="rId17" tooltip="Component" display="'Vishay Semiconductors" xr:uid="{8CBE7A95-84B7-4B4C-8980-FFBA63433157}"/>
-    <hyperlink ref="D26" r:id="rId18" tooltip="Component" display="'Texas Instruments" xr:uid="{3EDBDE57-5D16-4116-B073-CAB1D5E12CE3}"/>
-    <hyperlink ref="D27" r:id="rId19" tooltip="Component" display="'Texas Instruments" xr:uid="{AB61C659-5E4A-4E7F-8091-A0C1C8A98685}"/>
-    <hyperlink ref="E10" r:id="rId20" tooltip="Manufacturer" display="'B2B-PH-SM4-TBT(LF)(SN)" xr:uid="{C398540D-2562-4D55-8B25-69F89142FD02}"/>
-    <hyperlink ref="E11" r:id="rId21" tooltip="Manufacturer" display="'MEM2067-02-180-00-A" xr:uid="{05FF8958-9B7D-403C-89E7-831A1FF967FE}"/>
-    <hyperlink ref="E12" r:id="rId22" tooltip="Manufacturer" display="'450404015514" xr:uid="{C6AA90D6-775A-40A6-BF1C-2942D5E6BAC3}"/>
-    <hyperlink ref="E13" r:id="rId23" tooltip="Manufacturer" display="'61300621121" xr:uid="{E46A51EF-0CD3-4D0E-B11C-04CD6F3B27D7}"/>
-    <hyperlink ref="E14" r:id="rId24" tooltip="Manufacturer" display="'61301211121" xr:uid="{4126F58B-64EB-48E9-ADA3-53E87A432258}"/>
-    <hyperlink ref="E15" r:id="rId25" tooltip="Manufacturer" display="'EXB-N8V162JX" xr:uid="{851C9639-2AA7-4051-AD7C-9A846F6278FE}"/>
-    <hyperlink ref="E16" r:id="rId26" tooltip="Manufacturer" display="'RC0402FR-071ML, RC0402JR-070RL, RC0402FR-07453KL, RC0402FR-07100KL, RC0402JR-071M6L, RC0402JR-07180KL, RC0402FR-0710KL, RC0402FR-071KL, RC0402JR-07470KL" xr:uid="{66CFB7AA-0BAB-4440-9E47-2DE073582567}"/>
-    <hyperlink ref="E17" r:id="rId27" tooltip="Manufacturer" display="'GRM153R61A105ME95D, CL05A104KP5NNNC, CL05B152KB5NNNC, GRM155R61A475MEAAD, CL05A106MP5NUNC, GRM31CR60J107ME39L, C0402C180K5RAC7867" xr:uid="{7B70886D-5D47-4155-862F-114A40059966}"/>
-    <hyperlink ref="E18" r:id="rId28" tooltip="Manufacturer" display="'MLZ1608A2R2WT000, MLZ1608M4R7WT000" xr:uid="{DAAED366-F176-4783-8CFF-43FD9E11AA20}"/>
-    <hyperlink ref="E19" r:id="rId29" tooltip="Manufacturer" display="'LTST-C193TBKT-5A" xr:uid="{9DE918CC-D989-4B79-95F4-D12F6AC24A03}"/>
-    <hyperlink ref="E20" r:id="rId30" tooltip="Manufacturer" display="'CA0612KRX7R9BB102" xr:uid="{61B81365-FDA8-488A-87FC-0DCFE4CF8AAB}"/>
-    <hyperlink ref="E21" r:id="rId31" tooltip="Manufacturer" display="'ECS-80-18-30-JGN-TR" xr:uid="{ABD2BEFF-A50F-4DE1-9A40-C0E80D0D0B85}"/>
-    <hyperlink ref="E22" r:id="rId32" tooltip="Manufacturer" display="'PTS810SJK250SMTRLFS" xr:uid="{28CD9B91-DAAD-469F-9D31-2215DBBF2763}"/>
-    <hyperlink ref="E23" r:id="rId33" tooltip="Manufacturer" display="'AP3417CKTR-G1" xr:uid="{8AF274D8-87EE-46AB-8E52-0B9F7033901E}"/>
-    <hyperlink ref="E24" r:id="rId34" tooltip="Manufacturer" display="'PIC32MX250F128B-I/SS" xr:uid="{27C7DF5D-0D4A-4C31-ACA8-E4F4FC12EB99}"/>
-    <hyperlink ref="E25" r:id="rId35" tooltip="Manufacturer" display="'GSOT04C-G3-08" xr:uid="{490F205B-33CF-4390-896C-147AF756FE1E}"/>
-    <hyperlink ref="E26" r:id="rId36" tooltip="Manufacturer" display="'ADS1299IPAGR" xr:uid="{E1146058-33FF-4048-BCB6-4A64824CDCC4}"/>
-    <hyperlink ref="E27" r:id="rId37" tooltip="Manufacturer" display="'TPS61073DDCR" xr:uid="{39446364-C491-4226-B9C7-FD1CD60DE094}"/>
-    <hyperlink ref="J10" r:id="rId38" tooltip="Supplier" display="'455-2872-6-ND" xr:uid="{4D0A465C-FAA5-4639-A6E5-2630AFA5906F}"/>
-    <hyperlink ref="J11" r:id="rId39" tooltip="Supplier" display="'2073-MEM2067-02-180-00-ACT-ND" xr:uid="{CF1B3474-8070-409E-AE77-372DEBD666CB}"/>
-    <hyperlink ref="J12" r:id="rId40" tooltip="Supplier" display="'732-13665-6-ND" xr:uid="{62161FBE-5A25-4BD4-8BB8-838F78D0145A}"/>
-    <hyperlink ref="J13" r:id="rId41" tooltip="Supplier" display="'732-5295-ND" xr:uid="{8E9AF0C5-F08B-4DC0-8B33-58852FCD6F63}"/>
-    <hyperlink ref="J14" r:id="rId42" tooltip="Supplier" display="'732-5323-ND" xr:uid="{0232E260-FF16-49E6-94D2-3EE612F3884B}"/>
-    <hyperlink ref="J15" r:id="rId43" tooltip="Supplier" display="'Y10162DKR-ND" xr:uid="{319B4216-CE46-4571-80E9-4698BA7B9000}"/>
-    <hyperlink ref="J16" r:id="rId44" tooltip="Supplier" display="'311-1.00MLRCT-ND, 311-0.0JRDKR-ND, YAG3164DKR-ND, 311-100KLRCT-ND, YAG3284DKR-ND, 311-180KJRDKR-ND, 311-10.0KLRDKR-ND, 311-1.00KLRDKR-ND, 311-470KJRDKR-ND" xr:uid="{B12550CE-B39B-4151-8E94-17794D27192F}"/>
-    <hyperlink ref="J17" r:id="rId45" tooltip="Supplier" display="'490-14577-6-ND, 1276-1022-6-ND, 1276-1521-6-ND, 490-14306-6-ND, 1276-1450-6-ND, 490-4539-6-ND, 399-19371-6-ND" xr:uid="{B24B7F2B-AA0F-4145-9CB6-E9ACCAE3E0B1}"/>
-    <hyperlink ref="J18" r:id="rId46" tooltip="Supplier" display="'445-6385-6-ND, 445-6390-6-ND" xr:uid="{35DAEC10-9C18-4104-B3F4-B91E10C36CB5}"/>
-    <hyperlink ref="J19" r:id="rId47" tooltip="Supplier" display="'160-1827-1-ND" xr:uid="{7881D3C6-51DB-42B0-AEAE-197FAB418104}"/>
-    <hyperlink ref="J20" r:id="rId48" tooltip="Supplier" display="'311-2073-6-ND" xr:uid="{F1F67F2D-CC8B-4549-BDC9-8527F20B7A32}"/>
-    <hyperlink ref="J21" r:id="rId49" tooltip="Supplier" display="'XC2103DKR-ND" xr:uid="{03A34192-D2AC-4C9A-A1E6-721BA70C6D50}"/>
-    <hyperlink ref="J22" r:id="rId50" tooltip="Supplier" display="'CKN10503DKR-ND" xr:uid="{D929463E-86F6-40C8-8D0F-114B511E46E4}"/>
-    <hyperlink ref="J23" r:id="rId51" tooltip="Supplier" display="'AP3417CKTR-G1DIDKR-ND" xr:uid="{98E19703-1CE9-4F9E-A3A3-5ADD5EC75BB6}"/>
-    <hyperlink ref="J24" r:id="rId52" tooltip="Supplier" display="'PIC32MX250F128B-I/SS-ND" xr:uid="{77972A37-6726-42E0-B48B-92AB90F2FFDA}"/>
-    <hyperlink ref="J25" r:id="rId53" tooltip="Supplier" display="'GSOT04C-G3-08GIDKR-ND" xr:uid="{B3E61186-8A97-4E9D-B186-1ABC21F6144C}"/>
-    <hyperlink ref="J26" r:id="rId54" tooltip="Supplier" display="'296-34818-6-ND" xr:uid="{80687301-253A-4487-830A-ACAB4135DFD4}"/>
-    <hyperlink ref="J27" r:id="rId55" tooltip="Supplier" display="'296-21898-2-ND" xr:uid="{C690A03B-FCC0-4086-B2FE-8F2615814C97}"/>
+    <hyperlink ref="D10" r:id="rId2" tooltip="Component" display="'JST" xr:uid="{7414E2C8-641D-43D7-B80F-A3E591188267}"/>
+    <hyperlink ref="D11" r:id="rId3" tooltip="Component" display="'Global Connector Technology" xr:uid="{18D8D976-40AA-4E61-AE50-1F157EA53D02}"/>
+    <hyperlink ref="D12" r:id="rId4" tooltip="Component" display="'Wurth Electronics" xr:uid="{D1AFBA61-728E-4F2F-8C34-9A139845FEC4}"/>
+    <hyperlink ref="D13" r:id="rId5" tooltip="Component" display="'Wurth Electronics" xr:uid="{053BCAFE-A57E-4AE3-880B-8C2AAE7D9BC4}"/>
+    <hyperlink ref="D14" r:id="rId6" tooltip="Component" display="'Wurth Electronics" xr:uid="{06485DA6-B175-4899-B7ED-72990E3376A3}"/>
+    <hyperlink ref="D15" r:id="rId7" tooltip="Component" display="'Panasonic" xr:uid="{AFAB0DBE-E02F-4EDE-AFCB-171ADE22B00A}"/>
+    <hyperlink ref="D16" r:id="rId8" tooltip="Component" display="'Yageo" xr:uid="{F5C04F83-EFB7-41C3-B283-28F0241DE94E}"/>
+    <hyperlink ref="D17" r:id="rId9" tooltip="Component" display="'Murata, Samsung, KEMET" xr:uid="{FC8CAEE3-160F-4B27-BD4F-7846AF352F33}"/>
+    <hyperlink ref="D18" r:id="rId10" tooltip="Component" display="'TDK" xr:uid="{B6FBB7E7-56BB-43EC-BC40-C9DCC3E07DD1}"/>
+    <hyperlink ref="D19" r:id="rId11" tooltip="Component" display="'Vishay Lite-On" xr:uid="{513A9F79-82E3-4993-8F12-A853698D58D8}"/>
+    <hyperlink ref="D20" r:id="rId12" tooltip="Component" display="'Yageo" xr:uid="{D5B97504-7271-4AB7-A5DE-419D961675C0}"/>
+    <hyperlink ref="D21" r:id="rId13" tooltip="Component" display="'ECS International" xr:uid="{01D31302-CBDF-4235-B4FB-B82C94142CE5}"/>
+    <hyperlink ref="D22" r:id="rId14" tooltip="Component" display="'ITT C&amp;K" xr:uid="{9C431BB5-D298-47F4-871F-CEE9A041C114}"/>
+    <hyperlink ref="D23" r:id="rId15" tooltip="Component" display="'Diodes" xr:uid="{11C70371-E322-4E5C-9F1D-CE06F5691AAF}"/>
+    <hyperlink ref="D24" r:id="rId16" tooltip="Component" display="'Microchip" xr:uid="{5DFAA53B-A98B-43F4-A760-18C93191431D}"/>
+    <hyperlink ref="D25" r:id="rId17" tooltip="Component" display="'Vishay Semiconductors" xr:uid="{FD3E4C9B-2C94-4853-8F5C-1604E7F9AA97}"/>
+    <hyperlink ref="D26" r:id="rId18" tooltip="Component" display="'Texas Instruments" xr:uid="{D104A672-A8FE-49AD-9F5E-7267337682A1}"/>
+    <hyperlink ref="D27" r:id="rId19" tooltip="Component" display="'Texas Instruments" xr:uid="{EB19F061-6F56-41B2-BF62-648759B6702C}"/>
+    <hyperlink ref="E10" r:id="rId20" tooltip="Manufacturer" display="'B2B-PH-SM4-TBT(LF)(SN)" xr:uid="{A10B1DAF-CCB8-4D95-9212-AA22B07B7B63}"/>
+    <hyperlink ref="E11" r:id="rId21" tooltip="Manufacturer" display="'MEM2067-02-180-00-A" xr:uid="{8C060D02-103F-46FD-B8B1-4DECA93670D8}"/>
+    <hyperlink ref="E12" r:id="rId22" tooltip="Manufacturer" display="'450404015514" xr:uid="{4F287346-19C3-48D6-B128-A83A85E774C0}"/>
+    <hyperlink ref="E13" r:id="rId23" tooltip="Manufacturer" display="'61300621121" xr:uid="{B69911E7-4B72-468E-8344-A73B156E7603}"/>
+    <hyperlink ref="E14" r:id="rId24" tooltip="Manufacturer" display="'61301211121" xr:uid="{5C9B4C38-AE5D-4F98-91C3-8EEFDEEB6460}"/>
+    <hyperlink ref="E15" r:id="rId25" tooltip="Manufacturer" display="'EXB-N8V162JX" xr:uid="{84592B44-570B-419C-B633-E21A0832BB4A}"/>
+    <hyperlink ref="E16" r:id="rId26" tooltip="Manufacturer" display="'RC0402FR-071ML, RC0402JR-070RL, RC0402FR-07453KL, RC0402FR-07100KL, RC0402JR-071M6L, RC0402JR-07180KL, RC0402FR-0710KL, RC0402FR-071KL, RC0402JR-07470KL" xr:uid="{10070596-FF97-41C9-8D47-2BD439B96DB5}"/>
+    <hyperlink ref="E17" r:id="rId27" tooltip="Manufacturer" display="'GRM153R61A105ME95D, CL05A104KP5NNNC, CL05B152KB5NNNC, GRM155R61A475MEAAD, CL05A106MP5NUNC, GRM31CR60J107ME39L, C0402C180K5RAC7867" xr:uid="{DB5D88D1-D176-4442-980D-E5F2BDE5DAC0}"/>
+    <hyperlink ref="E18" r:id="rId28" tooltip="Manufacturer" display="'MLZ1608A2R2WT000, MLZ1608M4R7WT000" xr:uid="{52E5FD3C-A3F3-4308-A4D1-4E4136B632CF}"/>
+    <hyperlink ref="E19" r:id="rId29" tooltip="Manufacturer" display="'LTST-C193TBKT-5A" xr:uid="{A360BB26-2A87-4003-9FF4-ACABDCE37D17}"/>
+    <hyperlink ref="E20" r:id="rId30" tooltip="Manufacturer" display="'CA0612KRX7R9BB102" xr:uid="{ECC1BC6B-5921-4AE6-BD68-209BF1546CA1}"/>
+    <hyperlink ref="E21" r:id="rId31" tooltip="Manufacturer" display="'ECS-80-18-30-JGN-TR" xr:uid="{4F33D2E5-C482-447A-865F-A65778769E20}"/>
+    <hyperlink ref="E22" r:id="rId32" tooltip="Manufacturer" display="'PTS810SJK250SMTRLFS" xr:uid="{0EA70310-6719-4072-86DA-35720D2B4A5B}"/>
+    <hyperlink ref="E23" r:id="rId33" tooltip="Manufacturer" display="'AP3417CKTR-G1" xr:uid="{9549E058-3F54-4AA8-8BD0-9EDAB1EEA448}"/>
+    <hyperlink ref="E24" r:id="rId34" tooltip="Manufacturer" display="'PIC32MX250F128B-I/SS" xr:uid="{4AB39837-9492-4CE9-903F-D7016FE91E1B}"/>
+    <hyperlink ref="E25" r:id="rId35" tooltip="Manufacturer" display="'GSOT04C-G3-08" xr:uid="{AB25CFCF-4EE3-4CDD-B192-C866422E74F5}"/>
+    <hyperlink ref="E26" r:id="rId36" tooltip="Manufacturer" display="'ADS1299IPAGR" xr:uid="{D697F671-E7D0-4040-8941-D13C07CE5513}"/>
+    <hyperlink ref="E27" r:id="rId37" tooltip="Manufacturer" display="'TPS61073DDCR" xr:uid="{1C9CC195-D432-461C-A376-9D0FAE257B90}"/>
+    <hyperlink ref="J10" r:id="rId38" tooltip="Supplier" display="'455-2872-6-ND" xr:uid="{4DC43CB3-202C-4F8B-99D1-ECB84C67234C}"/>
+    <hyperlink ref="J11" r:id="rId39" tooltip="Supplier" display="'2073-MEM2067-02-180-00-ACT-ND" xr:uid="{B1DAA39C-A70C-4BD9-9ECD-2A2225089538}"/>
+    <hyperlink ref="J12" r:id="rId40" tooltip="Supplier" display="'732-13665-6-ND" xr:uid="{4F6A3FE2-58D8-479D-A73D-04D88D62355C}"/>
+    <hyperlink ref="J13" r:id="rId41" tooltip="Supplier" display="'732-5295-ND" xr:uid="{A118AD8F-0EA3-4AAD-9322-19E631D09917}"/>
+    <hyperlink ref="J14" r:id="rId42" tooltip="Supplier" display="'732-5323-ND" xr:uid="{BA66526A-B3BF-400E-A542-4AD9F67C1677}"/>
+    <hyperlink ref="J15" r:id="rId43" tooltip="Supplier" display="'Y10162DKR-ND" xr:uid="{D8C03F3F-0D4C-4E7A-B5AC-124D0C2954BF}"/>
+    <hyperlink ref="J16" r:id="rId44" tooltip="Supplier" display="'311-1.00MLRCT-ND, 311-0.0JRDKR-ND, YAG3164DKR-ND, 311-100KLRCT-ND, YAG3284DKR-ND, 311-180KJRDKR-ND, 311-10.0KLRDKR-ND, 311-1.00KLRDKR-ND, 311-470KJRDKR-ND" xr:uid="{3C561A05-1609-47A0-928A-EA65452823B6}"/>
+    <hyperlink ref="J17" r:id="rId45" tooltip="Supplier" display="'490-14577-6-ND, 1276-1022-6-ND, 1276-1521-6-ND, 490-14306-6-ND, 1276-1450-6-ND, 490-4539-6-ND, 399-19371-6-ND" xr:uid="{822A4AC3-3CFD-46E2-AC64-D5CE21CABCD0}"/>
+    <hyperlink ref="J18" r:id="rId46" tooltip="Supplier" display="'445-6385-6-ND, 445-6390-6-ND" xr:uid="{519B7A65-7784-410F-8E2C-165C30F3895D}"/>
+    <hyperlink ref="J19" r:id="rId47" tooltip="Supplier" display="'160-1827-1-ND" xr:uid="{198EDFB5-E50C-4482-BB68-ACF834C9E514}"/>
+    <hyperlink ref="J20" r:id="rId48" tooltip="Supplier" display="'311-2073-6-ND" xr:uid="{AE3313BE-9571-41C5-A85D-CD4BF15652F9}"/>
+    <hyperlink ref="J21" r:id="rId49" tooltip="Supplier" display="'XC2103DKR-ND" xr:uid="{107B4232-EED4-49E8-A878-C7820082D394}"/>
+    <hyperlink ref="J22" r:id="rId50" tooltip="Supplier" display="'CKN10503DKR-ND" xr:uid="{61C3E51F-B33B-469B-948E-1744062C4387}"/>
+    <hyperlink ref="J23" r:id="rId51" tooltip="Supplier" display="'AP3417CKTR-G1DIDKR-ND" xr:uid="{5E44CAEF-2D6F-4A3E-A91B-CAB3886D3C9F}"/>
+    <hyperlink ref="J24" r:id="rId52" tooltip="Supplier" display="'PIC32MX250F128B-I/SS-ND" xr:uid="{068A219C-AECC-4F63-9480-8FB143801E5E}"/>
+    <hyperlink ref="J25" r:id="rId53" tooltip="Supplier" display="'GSOT04C-G3-08GIDKR-ND" xr:uid="{D2C38072-70B9-4F79-9D21-849762744265}"/>
+    <hyperlink ref="J26" r:id="rId54" tooltip="Supplier" display="'296-34818-6-ND" xr:uid="{A988AE35-AD14-4F63-B644-C9A9D0504C0E}"/>
+    <hyperlink ref="J27" r:id="rId55" tooltip="Supplier" display="'296-21898-2-ND" xr:uid="{4B291EE5-42A8-4D32-88E0-07A524E642A6}"/>
   </hyperlinks>
   <pageMargins left="0.47244094488188981" right="0.35433070866141736" top="0.59055118110236227" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId56"/>
@@ -3656,7 +3650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
@@ -3664,7 +3658,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>9</v>
       </c>
@@ -3672,7 +3666,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
@@ -3680,7 +3674,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>11</v>
       </c>
@@ -3688,7 +3682,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
@@ -3696,7 +3690,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>13</v>
       </c>

--- a/_schematics/Project Outputs for EEG_circuit/BOM/Bill of Materials-EEG_circuit.xlsx
+++ b/_schematics/Project Outputs for EEG_circuit/BOM/Bill of Materials-EEG_circuit.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ABEAAA7-3B74-4057-AB3B-4D1DA2B37813}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5F7F46E-88BB-4928-9552-C0F46DE88FE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2840" windowWidth="6400" windowHeight="3470" xr2:uid="{A19C7029-8A33-40CC-8BCE-3E9C8DF13120}"/>
+    <workbookView xWindow="2840" yWindow="2840" windowWidth="6400" windowHeight="3470" xr2:uid="{D53E0C5B-2D10-4E0B-9E0D-15D3C1777E04}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-EEG_circuit" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="241">
   <si>
     <t>Case/Package</t>
   </si>
@@ -88,6 +88,39 @@
     <t/>
   </si>
   <si>
+    <t>0402 Cap 18pF</t>
+  </si>
+  <si>
+    <t>0402resistor</t>
+  </si>
+  <si>
+    <t>18pF_Cap</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>C0402C180K5RAC7867</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>399-19371-6-ND</t>
+  </si>
+  <si>
+    <t>C20, C21</t>
+  </si>
+  <si>
+    <t>18pF</t>
+  </si>
+  <si>
     <t>CONN HEADER SMD 2POS 2MM</t>
   </si>
   <si>
@@ -103,9 +136,6 @@
     <t>Volume Production</t>
   </si>
   <si>
-    <t>Digi-Key</t>
-  </si>
-  <si>
     <t>455-2872-6-ND</t>
   </si>
   <si>
@@ -122,9 +152,6 @@
   </si>
   <si>
     <t>Global Connector Technology</t>
-  </si>
-  <si>
-    <t>USD</t>
   </si>
   <si>
     <t>2073-MEM2067-02-180-00-ACT-ND</t>
@@ -146,9 +173,6 @@
     <t>Wurth Electronics</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>732-13665-6-ND</t>
   </si>
   <si>
@@ -188,6 +212,102 @@
     <t>0402</t>
   </si>
   <si>
+    <t>0402 Cap 0.1uF</t>
+  </si>
+  <si>
+    <t>0.1uF_Cap</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>CL05A104KP5NNNC</t>
+  </si>
+  <si>
+    <t>1276-1022-6-ND</t>
+  </si>
+  <si>
+    <t>C2, C5, C7, C10, C12, C18</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>0402 Cap 1uF</t>
+  </si>
+  <si>
+    <t>1uF_Cap</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>GRM153R61A105ME95D</t>
+  </si>
+  <si>
+    <t>490-14577-6-ND</t>
+  </si>
+  <si>
+    <t>C1, C4, C6, C15, C16</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>0402 Cap 1.5nF</t>
+  </si>
+  <si>
+    <t>1.5nF_Cap</t>
+  </si>
+  <si>
+    <t>CL05B152KB5NNNC</t>
+  </si>
+  <si>
+    <t>1276-1521-6-ND</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>1.5nF</t>
+  </si>
+  <si>
+    <t>0402 Cap 4.7uF</t>
+  </si>
+  <si>
+    <t>4.7uF_Cap</t>
+  </si>
+  <si>
+    <t>GRM155R61A475MEAAD</t>
+  </si>
+  <si>
+    <t>490-14306-6-ND</t>
+  </si>
+  <si>
+    <t>C8, C13, C14</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>0402 Cap 10uF</t>
+  </si>
+  <si>
+    <t>10uF_Cap</t>
+  </si>
+  <si>
+    <t>CL05A106MP5NUNC</t>
+  </si>
+  <si>
+    <t>1276-1450-6-ND</t>
+  </si>
+  <si>
+    <t>C9, C11, C17, C22</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
     <t>RES ARRAY 4 RES 1.6K OHM 0804</t>
   </si>
   <si>
@@ -206,82 +326,214 @@
     <t>U3, U6, U9</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>0402resistor</t>
-  </si>
-  <si>
-    <t>Res1</t>
+    <t>RES SMD 0 OHM JUMPER 1/16W 0402</t>
+  </si>
+  <si>
+    <t>0_Res</t>
   </si>
   <si>
     <t>Yageo</t>
   </si>
   <si>
-    <t>RC0402FR-071ML, RC0402JR-070RL, RC0402FR-07453KL, RC0402FR-07100KL, RC0402JR-071M6L, RC0402JR-07180KL, RC0402FR-0710KL, RC0402FR-071KL, RC0402JR-07470KL</t>
-  </si>
-  <si>
-    <t>311-1.00MLRCT-ND, 311-0.0JRDKR-ND, YAG3164DKR-ND, 311-100KLRCT-ND, YAG3284DKR-ND, 311-180KJRDKR-ND, 311-10.0KLRDKR-ND, 311-1.00KLRDKR-ND, 311-470KJRDKR-ND</t>
-  </si>
-  <si>
-    <t>R1, R2, R3, R4, R5, R6, R7, R8, R9, R10, R11, R12, R13, R14, R15, R16</t>
-  </si>
-  <si>
-    <t>1M, 0, 453K, 100K, 1.6M, 180K, 10K, 1K, 470K</t>
-  </si>
-  <si>
-    <t>0402, 1206, [NoParam]</t>
-  </si>
-  <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
-    <t>0402resistor, 1206resistor</t>
-  </si>
-  <si>
-    <t>Cap</t>
-  </si>
-  <si>
-    <t>Murata, Samsung, KEMET</t>
-  </si>
-  <si>
-    <t>Volume Production, Unknown</t>
-  </si>
-  <si>
-    <t>GRM153R61A105ME95D, CL05A104KP5NNNC, CL05B152KB5NNNC, GRM155R61A475MEAAD, CL05A106MP5NUNC, GRM31CR60J107ME39L, C0402C180K5RAC7867</t>
-  </si>
-  <si>
-    <t>490-14577-6-ND, 1276-1022-6-ND, 1276-1521-6-ND, 490-14306-6-ND, 1276-1450-6-ND, 490-4539-6-ND, 399-19371-6-ND</t>
-  </si>
-  <si>
-    <t>C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23</t>
-  </si>
-  <si>
-    <t>1uF, 0.1uF, 1.5nF, 4.7uF, 10uF, 100uF, 18pF</t>
+    <t>RC0402JR-070RL</t>
+  </si>
+  <si>
+    <t>311-0.0JRDKR-ND</t>
+  </si>
+  <si>
+    <t>R2, R3</t>
+  </si>
+  <si>
+    <t>0R</t>
+  </si>
+  <si>
+    <t>RES SMD 1K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>1k_Res</t>
+  </si>
+  <si>
+    <t>RC0402FR-071KL</t>
+  </si>
+  <si>
+    <t>311-1.00KLRCT-ND</t>
+  </si>
+  <si>
+    <t>R13, R15</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>RES SMD 1M OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>1M_Res</t>
+  </si>
+  <si>
+    <t>RC0402FR-071ML</t>
+  </si>
+  <si>
+    <t>311-1.00MLRCT-ND</t>
+  </si>
+  <si>
+    <t>R1, R16</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>RES SMD 1.6M OHM 5% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>1_6M_Res</t>
+  </si>
+  <si>
+    <t>RC0402JR-071M6L</t>
+  </si>
+  <si>
+    <t>YAG3284DKR-ND</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>1.6M</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>10k_Res</t>
+  </si>
+  <si>
+    <t>RC0402FR-0710KL</t>
+  </si>
+  <si>
+    <t>311-10.0KLRCT-ND</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>RES SMD 100K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>100k_Res</t>
+  </si>
+  <si>
+    <t>RC0402FR-07100KL</t>
+  </si>
+  <si>
+    <t>311-100KLRCT-ND</t>
+  </si>
+  <si>
+    <t>R5, R6, R7, R8, R11</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>RES SMD 180K OHM 5% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>180k_Res</t>
+  </si>
+  <si>
+    <t>RC0402JR-07180KL</t>
+  </si>
+  <si>
+    <t>311-180KJRDKR-ND</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>180k</t>
+  </si>
+  <si>
+    <t>RES SMD 453K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>453k_Res</t>
+  </si>
+  <si>
+    <t>RC0402FR-07453KL</t>
+  </si>
+  <si>
+    <t>YAG3164DKR-ND</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>453k</t>
+  </si>
+  <si>
+    <t>RES SMD 470K OHM 5% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>470k_Res</t>
+  </si>
+  <si>
+    <t>RC0402JR-07470KL</t>
+  </si>
+  <si>
+    <t>311-470KJRDKR-ND</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>470k</t>
   </si>
   <si>
     <t>0603</t>
   </si>
   <si>
+    <t>FIXED IND 2.2UH 500MA 250 MOHM</t>
+  </si>
+  <si>
+    <t>0603INDUCTOR</t>
+  </si>
+  <si>
+    <t>2_2uH_Inductor</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>MLZ1608A2R2WT000</t>
+  </si>
+  <si>
+    <t>445-6385-6-ND</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
     <t>Inductor</t>
   </si>
   <si>
-    <t>0603INDUCTOR</t>
-  </si>
-  <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>MLZ1608A2R2WT000, MLZ1608M4R7WT000</t>
-  </si>
-  <si>
-    <t>445-6385-6-ND, 445-6390-6-ND</t>
-  </si>
-  <si>
-    <t>L1, L2</t>
-  </si>
-  <si>
-    <t>2.2uH, 4.7uH</t>
+    <t>4_7uH_Inductor</t>
+  </si>
+  <si>
+    <t>MLZ1608M4R7WT000</t>
+  </si>
+  <si>
+    <t>445-6390-6-ND</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>4.7uH</t>
   </si>
   <si>
     <t>LED BLUE CLEAR CHIP SMD</t>
@@ -321,6 +573,30 @@
   </si>
   <si>
     <t>U5, U7</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>1206 Cap 100uF</t>
+  </si>
+  <si>
+    <t>1206resistor</t>
+  </si>
+  <si>
+    <t>100uF_Cap</t>
+  </si>
+  <si>
+    <t>GRM31CR60J107ME39L</t>
+  </si>
+  <si>
+    <t>490-4539-6-ND</t>
+  </si>
+  <si>
+    <t>C19, C23</t>
+  </si>
+  <si>
+    <t>100uF</t>
   </si>
   <si>
     <t>SMD/SMT</t>
@@ -870,14 +1146,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED39BB3-BBE2-44B4-A149-CC9080099658}">
-  <dimension ref="A1:S19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE36C0B-5D2E-440A-8CAA-AC3AF412D98E}">
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16" width="5.90625" customWidth="1"/>
+    <col min="1" max="13" width="5.90625" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="16" width="5.90625" customWidth="1"/>
     <col min="17" max="17" width="6.08984375" customWidth="1"/>
     <col min="18" max="19" width="9.1796875" customWidth="1"/>
   </cols>
@@ -964,32 +1242,40 @@
         <v>24</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2</v>
+      </c>
       <c r="M2" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+        <v>3539</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0.21</v>
+      </c>
       <c r="R2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.4">
@@ -1000,170 +1286,154 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L3" s="3"/>
       <c r="M3" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N3" s="3">
-        <v>2217</v>
-      </c>
-      <c r="O3" s="3">
-        <v>1.19</v>
-      </c>
-      <c r="P3" s="3">
-        <v>1.19</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>1.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
       <c r="R3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="126" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L4" s="3"/>
       <c r="M4" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N4" s="3">
-        <v>2505</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
       <c r="R4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="126" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
+      <c r="C5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L5" s="3">
         <v>1</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N5" s="3">
-        <v>2579</v>
+        <v>2490</v>
       </c>
       <c r="O5" s="3">
-        <v>0.54</v>
+        <v>0.75</v>
       </c>
       <c r="P5" s="3">
-        <v>0.54</v>
+        <v>0.75</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.54</v>
+        <v>0.75</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>19</v>
@@ -1177,40 +1447,40 @@
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L6" s="3">
         <v>1</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N6" s="3">
-        <v>266</v>
+        <v>2352</v>
       </c>
       <c r="O6" s="3">
         <v>0.54</v>
@@ -1222,7 +1492,7 @@
         <v>0.54</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>19</v>
@@ -1230,58 +1500,58 @@
     </row>
     <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N7" s="3">
-        <v>21269</v>
+        <v>266</v>
       </c>
       <c r="O7" s="3">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="P7" s="3">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.11</v>
+        <v>0.54</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>19</v>
@@ -1289,64 +1559,66 @@
     </row>
     <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I8" s="3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L8" s="3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="N8" s="3">
+        <v>11994234</v>
+      </c>
       <c r="O8" s="3">
-        <v>0.26</v>
+        <v>0.6</v>
       </c>
       <c r="P8" s="3">
-        <v>0.26</v>
+        <v>0.6</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -1355,281 +1627,285 @@
         <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="I9" s="3">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="3">
+        <v>5</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="N9" s="3">
+        <v>42932</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="3">
-        <v>23</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="3">
-        <v>23</v>
-      </c>
-      <c r="M9" s="5" t="s">
+      <c r="S9" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3">
-        <v>3.01</v>
-      </c>
-      <c r="P9" s="3">
-        <v>3.01</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="N10" s="3">
+        <v>647850</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="S10" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3">
-        <v>0.34</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0.34</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="3">
+        <v>821187</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N11" s="3">
-        <v>134140</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="3">
+        <v>4</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="3">
+        <v>3222186</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1.84</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1.84</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="N12" s="3">
-        <v>8061</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="3">
+        <v>3</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" s="3">
+        <v>21269</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N13" s="3">
-        <v>438</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0.69</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0.69</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0.69</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>19</v>
@@ -1637,408 +1913,1338 @@
     </row>
     <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I14" s="3">
         <v>2</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L14" s="3">
         <v>2</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="N14" s="3">
-        <v>69240</v>
+        <v>49052469</v>
       </c>
       <c r="O14" s="3">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="P14" s="3">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N15" s="3">
-        <v>33002</v>
+        <v>38781443</v>
       </c>
       <c r="O15" s="3">
-        <v>0.41</v>
+        <v>0.2</v>
       </c>
       <c r="P15" s="3">
-        <v>0.41</v>
+        <v>0.2</v>
       </c>
       <c r="Q15" s="3">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="N16" s="3">
-        <v>2605</v>
+        <v>9483260</v>
       </c>
       <c r="O16" s="3">
-        <v>3.57</v>
+        <v>0.2</v>
       </c>
       <c r="P16" s="3">
-        <v>3.57</v>
+        <v>0.2</v>
       </c>
       <c r="Q16" s="3">
-        <v>3.57</v>
+        <v>0.1</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L17" s="3">
         <v>1</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="N17" s="3">
-        <v>3725</v>
+        <v>10969</v>
       </c>
       <c r="O17" s="3">
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
       <c r="P17" s="3">
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
       <c r="Q17" s="3">
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="I18" s="3">
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="N18" s="3">
-        <v>1265</v>
+        <v>50506467</v>
       </c>
       <c r="O18" s="3">
-        <v>53.84</v>
+        <v>0.1</v>
       </c>
       <c r="P18" s="3">
-        <v>53.84</v>
+        <v>0.1</v>
       </c>
       <c r="Q18" s="3">
-        <v>53.84</v>
+        <v>0.1</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" s="3">
+        <v>5</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="3">
+        <v>5</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N19" s="3">
+        <v>46409372</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="N20" s="3">
+        <v>33790</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="F21" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="N21" s="3">
+        <v>641723</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R21" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="5" t="s">
+      <c r="S21" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="N19" s="3">
+    </row>
+    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1635867</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="N23" s="3">
+        <v>11492</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1507</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="N25" s="3">
+        <v>133364</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="3">
+        <v>2</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N26" s="3">
+        <v>7911</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="3">
+        <v>2</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1303159</v>
+      </c>
+      <c r="O27" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="P27" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="N28" s="3">
+        <v>2422</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="N29" s="3">
+        <v>69232</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="N30" s="3">
+        <v>33002</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="N31" s="3">
+        <v>2605</v>
+      </c>
+      <c r="O31" s="3">
+        <v>3.57</v>
+      </c>
+      <c r="P31" s="3">
+        <v>3.57</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>3.57</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="N32" s="3">
+        <v>3725</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1132</v>
+      </c>
+      <c r="O33" s="3">
+        <v>53.84</v>
+      </c>
+      <c r="P33" s="3">
+        <v>53.84</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>53.84</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="N34" s="3">
         <v>6000</v>
       </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="S19" s="2" t="s">
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="S34" s="2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" tooltip="Component" display="'JST" xr:uid="{219E301F-6D2A-4783-ACC5-E34863B6A1D6}"/>
-    <hyperlink ref="H2" r:id="rId2" tooltip="Manufacturer" display="'B2B-PH-SM4-TBT(LF)(SN)" xr:uid="{6D0B8CC7-5903-4A08-B181-62F20F920B93}"/>
-    <hyperlink ref="M2" r:id="rId3" tooltip="Supplier" display="'455-2872-6-ND" xr:uid="{10BBE58C-0835-4984-9A9F-950BABAC1AE4}"/>
-    <hyperlink ref="F3" r:id="rId4" tooltip="Component" display="'Global Connector Technology" xr:uid="{8CA405D9-2C26-4781-AFC1-087A5646F991}"/>
-    <hyperlink ref="H3" r:id="rId5" tooltip="Manufacturer" display="'MEM2067-02-180-00-A" xr:uid="{7E0883BF-D387-4D1C-8854-A8E334405C27}"/>
-    <hyperlink ref="M3" r:id="rId6" tooltip="Supplier" display="'2073-MEM2067-02-180-00-ACT-ND" xr:uid="{86C9D19D-9602-483A-AF75-4B9D145AD645}"/>
-    <hyperlink ref="F4" r:id="rId7" tooltip="Component" display="'Wurth Electronics" xr:uid="{836C1BA5-C51C-4796-B705-32B6FF92F26D}"/>
-    <hyperlink ref="H4" r:id="rId8" tooltip="Manufacturer" display="'450404015514" xr:uid="{83749ADF-2D93-47AF-820F-2A8B0CC8ACF7}"/>
-    <hyperlink ref="M4" r:id="rId9" tooltip="Supplier" display="'732-13665-6-ND" xr:uid="{1CE0E8E8-20E9-4E44-A4B5-233355313405}"/>
-    <hyperlink ref="F5" r:id="rId10" tooltip="Component" display="'Wurth Electronics" xr:uid="{AFBE7B19-77F1-48CE-B0BD-07C1F953DEA7}"/>
-    <hyperlink ref="H5" r:id="rId11" tooltip="Manufacturer" display="'61300621121" xr:uid="{94FC5ED4-0A93-4B30-824B-F7C2F01FA186}"/>
-    <hyperlink ref="M5" r:id="rId12" tooltip="Supplier" display="'732-5295-ND" xr:uid="{E5747E93-44B2-44F7-BFD7-C2C1CEE9966B}"/>
-    <hyperlink ref="F6" r:id="rId13" tooltip="Component" display="'Wurth Electronics" xr:uid="{6C91560A-F393-4E96-ACAB-C9BCA117ACD3}"/>
-    <hyperlink ref="H6" r:id="rId14" tooltip="Manufacturer" display="'61301211121" xr:uid="{B9AE19E9-3BFA-42E1-A3B7-34D55D1BCE43}"/>
-    <hyperlink ref="M6" r:id="rId15" tooltip="Supplier" display="'732-5323-ND" xr:uid="{3506A7B3-381C-4711-96B1-323477096EAB}"/>
-    <hyperlink ref="F7" r:id="rId16" tooltip="Component" display="'Panasonic" xr:uid="{EA2C796A-C493-4F83-911A-64B15780571D}"/>
-    <hyperlink ref="H7" r:id="rId17" tooltip="Manufacturer" display="'EXB-N8V162JX" xr:uid="{A3FB4ED3-A488-475D-A25C-065296FF4F1A}"/>
-    <hyperlink ref="M7" r:id="rId18" tooltip="Supplier" display="'Y10162DKR-ND" xr:uid="{9BC67648-231A-44B1-8BAF-5B92AAF569C6}"/>
-    <hyperlink ref="F8" r:id="rId19" tooltip="Component" display="'Yageo" xr:uid="{A9C24FD0-4F40-43F0-BA83-09FBEC40908E}"/>
-    <hyperlink ref="H8" r:id="rId20" tooltip="Manufacturer" display="'RC0402FR-071ML, RC0402JR-070RL, RC0402FR-07453KL, RC0402FR-07100KL, RC0402JR-071M6L, RC0402JR-07180KL, RC0402FR-0710KL, RC0402FR-071KL, RC0402JR-07470KL" xr:uid="{24D53BE2-F764-42B7-9001-05B042FD01C6}"/>
-    <hyperlink ref="M8" r:id="rId21" tooltip="Supplier" display="'311-1.00MLRCT-ND, 311-0.0JRDKR-ND, YAG3164DKR-ND, 311-100KLRCT-ND, YAG3284DKR-ND, 311-180KJRDKR-ND, 311-10.0KLRDKR-ND, 311-1.00KLRDKR-ND, 311-470KJRDKR-ND" xr:uid="{2A573274-1CAA-46AE-B09D-907EBBEE3C27}"/>
-    <hyperlink ref="F9" r:id="rId22" tooltip="Component" display="'Murata, Samsung, KEMET" xr:uid="{985FD5AC-4DA3-428D-8D84-AF316AD009AB}"/>
-    <hyperlink ref="H9" r:id="rId23" tooltip="Manufacturer" display="'GRM153R61A105ME95D, CL05A104KP5NNNC, CL05B152KB5NNNC, GRM155R61A475MEAAD, CL05A106MP5NUNC, GRM31CR60J107ME39L, C0402C180K5RAC7867" xr:uid="{55F3CF38-8AE8-4421-9F99-D4B939574528}"/>
-    <hyperlink ref="M9" r:id="rId24" tooltip="Supplier" display="'490-14577-6-ND, 1276-1022-6-ND, 1276-1521-6-ND, 490-14306-6-ND, 1276-1450-6-ND, 490-4539-6-ND, 399-19371-6-ND" xr:uid="{7D643C3A-1426-419E-92EB-AA14810B5119}"/>
-    <hyperlink ref="F10" r:id="rId25" tooltip="Component" display="'TDK" xr:uid="{9CF1894F-C29F-478A-B234-E0F315D70369}"/>
-    <hyperlink ref="H10" r:id="rId26" tooltip="Manufacturer" display="'MLZ1608A2R2WT000, MLZ1608M4R7WT000" xr:uid="{79A04826-F383-4A7F-A7BD-BECD5577A19E}"/>
-    <hyperlink ref="M10" r:id="rId27" tooltip="Supplier" display="'445-6385-6-ND, 445-6390-6-ND" xr:uid="{848DBB9C-89ED-4CEB-A45B-346F560345D1}"/>
-    <hyperlink ref="F11" r:id="rId28" tooltip="Component" display="'Vishay Lite-On" xr:uid="{5CCAE0AE-54E0-4FAC-B126-F1C31C035D32}"/>
-    <hyperlink ref="H11" r:id="rId29" tooltip="Manufacturer" display="'LTST-C193TBKT-5A" xr:uid="{C3F2083D-6131-49DD-BFAB-72749A7EB040}"/>
-    <hyperlink ref="M11" r:id="rId30" tooltip="Supplier" display="'160-1827-1-ND" xr:uid="{9F1F9A1F-53A2-432C-8DD6-F2A1DEC0D9CE}"/>
-    <hyperlink ref="F12" r:id="rId31" tooltip="Component" display="'Yageo" xr:uid="{812F20C4-3B11-4025-8AEB-67DDC89A81AC}"/>
-    <hyperlink ref="H12" r:id="rId32" tooltip="Manufacturer" display="'CA0612KRX7R9BB102" xr:uid="{656DF30D-7750-4201-9C77-585F69B3AE27}"/>
-    <hyperlink ref="M12" r:id="rId33" tooltip="Supplier" display="'311-2073-6-ND" xr:uid="{32C7AB04-5821-44B7-9D07-4EA8CEA87841}"/>
-    <hyperlink ref="F13" r:id="rId34" tooltip="Component" display="'ECS International" xr:uid="{EAD8EF2B-1034-480E-92AD-F19FAA836462}"/>
-    <hyperlink ref="H13" r:id="rId35" tooltip="Manufacturer" display="'ECS-80-18-30-JGN-TR" xr:uid="{41E42B94-7408-4889-835B-E8F9583CA87C}"/>
-    <hyperlink ref="M13" r:id="rId36" tooltip="Supplier" display="'XC2103DKR-ND" xr:uid="{D5C718B4-8270-4C27-9593-C4910078E9D1}"/>
-    <hyperlink ref="F14" r:id="rId37" tooltip="Component" display="'ITT C&amp;K" xr:uid="{27D5DC53-9565-4152-9D89-44E80B6095FC}"/>
-    <hyperlink ref="H14" r:id="rId38" tooltip="Manufacturer" display="'PTS810SJK250SMTRLFS" xr:uid="{C34708CB-A156-48C2-814A-4618DF4A3578}"/>
-    <hyperlink ref="M14" r:id="rId39" tooltip="Supplier" display="'CKN10503DKR-ND" xr:uid="{6C46DFCE-541B-48D7-9B84-E20F4F4EA11B}"/>
-    <hyperlink ref="F15" r:id="rId40" tooltip="Component" display="'Diodes" xr:uid="{A8D3BC8E-0C5F-4C8B-863E-9D194B1A0864}"/>
-    <hyperlink ref="H15" r:id="rId41" tooltip="Manufacturer" display="'AP3417CKTR-G1" xr:uid="{DFA1D079-65EE-4F3A-B247-7467B28F640D}"/>
-    <hyperlink ref="M15" r:id="rId42" tooltip="Supplier" display="'AP3417CKTR-G1DIDKR-ND" xr:uid="{476FB51D-B1E7-49FB-9008-159456FF30D4}"/>
-    <hyperlink ref="F16" r:id="rId43" tooltip="Component" display="'Microchip" xr:uid="{49DF0C9C-3F2B-4AC0-9EC2-DECF9A181C9A}"/>
-    <hyperlink ref="H16" r:id="rId44" tooltip="Manufacturer" display="'PIC32MX250F128B-I/SS" xr:uid="{B6B04674-4E55-4395-8BA6-9E7F66F72844}"/>
-    <hyperlink ref="M16" r:id="rId45" tooltip="Supplier" display="'PIC32MX250F128B-I/SS-ND" xr:uid="{29B6DAED-3868-4368-A01A-A93DF247FA43}"/>
-    <hyperlink ref="F17" r:id="rId46" tooltip="Component" display="'Vishay Semiconductors" xr:uid="{20F24FD4-BC38-4E87-8626-E53ACB70DFD3}"/>
-    <hyperlink ref="H17" r:id="rId47" tooltip="Manufacturer" display="'GSOT04C-G3-08" xr:uid="{1E99D60E-63DC-484E-98A1-80735B6EFEFF}"/>
-    <hyperlink ref="M17" r:id="rId48" tooltip="Supplier" display="'GSOT04C-G3-08GIDKR-ND" xr:uid="{67341915-C794-495C-8A12-4D43F3D41B71}"/>
-    <hyperlink ref="F18" r:id="rId49" tooltip="Component" display="'Texas Instruments" xr:uid="{09557383-2EB4-4FDE-98DF-F8CDF1205F77}"/>
-    <hyperlink ref="H18" r:id="rId50" tooltip="Manufacturer" display="'ADS1299IPAGR" xr:uid="{C9D0D44F-9F3E-4047-8BAE-65E9CF2D0C82}"/>
-    <hyperlink ref="M18" r:id="rId51" tooltip="Supplier" display="'296-34818-6-ND" xr:uid="{A275B11E-AA72-4253-B673-54E220FC410D}"/>
-    <hyperlink ref="F19" r:id="rId52" tooltip="Component" display="'Texas Instruments" xr:uid="{37F46247-7478-41A5-84A1-3A66F4088032}"/>
-    <hyperlink ref="H19" r:id="rId53" tooltip="Manufacturer" display="'TPS61073DDCR" xr:uid="{3D71C7DA-5FD3-4F06-BEA4-091D3E9F5829}"/>
-    <hyperlink ref="M19" r:id="rId54" tooltip="Supplier" display="'296-21898-2-ND" xr:uid="{06E6EBF0-045B-4CD5-B772-05E91349F420}"/>
+    <hyperlink ref="F2" r:id="rId1" tooltip="Component" display="'KEMET" xr:uid="{749C05B8-44B9-4DA1-A60D-AEA549969170}"/>
+    <hyperlink ref="H2" r:id="rId2" tooltip="Manufacturer" display="'C0402C180K5RAC7867" xr:uid="{C2C6EABC-459D-40A0-B4E0-5F15A1B569E3}"/>
+    <hyperlink ref="M2" r:id="rId3" tooltip="Supplier" display="'399-19371-6-ND" xr:uid="{55BE87BB-EE80-4DC5-ACDB-94256850543A}"/>
+    <hyperlink ref="F3" r:id="rId4" tooltip="Component" display="'JST" xr:uid="{42F4EBB7-3F22-4E1A-8D43-6116387D4876}"/>
+    <hyperlink ref="H3" r:id="rId5" tooltip="Manufacturer" display="'B2B-PH-SM4-TBT(LF)(SN)" xr:uid="{B309AB0D-E0E0-408F-B5F3-1D4A93940D1D}"/>
+    <hyperlink ref="M3" r:id="rId6" tooltip="Supplier" display="'455-2872-6-ND" xr:uid="{BB5EFB95-3705-442C-9272-52F078609335}"/>
+    <hyperlink ref="F4" r:id="rId7" tooltip="Component" display="'Global Connector Technology" xr:uid="{329F54FB-68C5-4AFA-8233-5F7A59142F8D}"/>
+    <hyperlink ref="H4" r:id="rId8" tooltip="Manufacturer" display="'MEM2067-02-180-00-A" xr:uid="{103B924E-CD89-40F5-9F9C-1C2338F77DB4}"/>
+    <hyperlink ref="M4" r:id="rId9" tooltip="Supplier" display="'2073-MEM2067-02-180-00-ACT-ND" xr:uid="{41CE3718-214B-41EA-BF4F-09E944ADBAD1}"/>
+    <hyperlink ref="F5" r:id="rId10" tooltip="Component" display="'Wurth Electronics" xr:uid="{6AD87F09-8DE5-4F3E-872D-0F2454B36C27}"/>
+    <hyperlink ref="H5" r:id="rId11" tooltip="Manufacturer" display="'450404015514" xr:uid="{34F57666-D974-4440-8F50-9843AB6E144C}"/>
+    <hyperlink ref="M5" r:id="rId12" tooltip="Supplier" display="'732-13665-6-ND" xr:uid="{B70B743E-FA57-4E78-AAD4-0509FC57BA26}"/>
+    <hyperlink ref="F6" r:id="rId13" tooltip="Component" display="'Wurth Electronics" xr:uid="{E39486B5-BE44-45E6-8243-BF51BC4F82AA}"/>
+    <hyperlink ref="H6" r:id="rId14" tooltip="Manufacturer" display="'61300621121" xr:uid="{73A4ED3E-F579-4F6B-8339-C16769ED6658}"/>
+    <hyperlink ref="M6" r:id="rId15" tooltip="Supplier" display="'732-5295-ND" xr:uid="{5BA9927C-6E88-4FC6-B47E-00D3602A677D}"/>
+    <hyperlink ref="F7" r:id="rId16" tooltip="Component" display="'Wurth Electronics" xr:uid="{3B3BAD71-6016-4B45-BBE4-D0A548F39BC3}"/>
+    <hyperlink ref="H7" r:id="rId17" tooltip="Manufacturer" display="'61301211121" xr:uid="{C659BFE6-F962-42A1-ACAA-B3C988C26E26}"/>
+    <hyperlink ref="M7" r:id="rId18" tooltip="Supplier" display="'732-5323-ND" xr:uid="{D78A9A84-4DD1-4C3E-91F7-38FB6A9D263A}"/>
+    <hyperlink ref="F8" r:id="rId19" tooltip="Component" display="'Samsung" xr:uid="{A69C27B5-34AE-4DB9-953A-9233AA02CDFA}"/>
+    <hyperlink ref="H8" r:id="rId20" tooltip="Manufacturer" display="'CL05A104KP5NNNC" xr:uid="{4F62F49F-6A72-4A2B-AE61-9357E5BFA905}"/>
+    <hyperlink ref="M8" r:id="rId21" tooltip="Supplier" display="'1276-1022-6-ND" xr:uid="{1DD292ED-8E6A-4735-A1F8-E9742BEC6EB8}"/>
+    <hyperlink ref="F9" r:id="rId22" tooltip="Component" display="'Murata" xr:uid="{917C3A93-3B5D-47DB-BF08-5EF4AA52C53B}"/>
+    <hyperlink ref="H9" r:id="rId23" tooltip="Manufacturer" display="'GRM153R61A105ME95D" xr:uid="{1FB54F3A-31ED-4FB1-90A0-A7AF3BB4BA6D}"/>
+    <hyperlink ref="M9" r:id="rId24" tooltip="Supplier" display="'490-14577-6-ND" xr:uid="{0120CD1D-87E5-4549-8A6E-E85BB49A8B63}"/>
+    <hyperlink ref="F10" r:id="rId25" tooltip="Component" display="'Samsung" xr:uid="{E53A0057-BB76-477B-A863-1A9A75CB4D98}"/>
+    <hyperlink ref="H10" r:id="rId26" tooltip="Manufacturer" display="'CL05B152KB5NNNC" xr:uid="{BF103699-33F8-40E3-927E-2A55FA5A041A}"/>
+    <hyperlink ref="M10" r:id="rId27" tooltip="Supplier" display="'1276-1521-6-ND" xr:uid="{412FF172-CFF2-4F86-9510-0F96274A375F}"/>
+    <hyperlink ref="F11" r:id="rId28" tooltip="Component" display="'Murata" xr:uid="{B3F2F136-D548-4B84-BC3F-DB929CDB6866}"/>
+    <hyperlink ref="H11" r:id="rId29" tooltip="Manufacturer" display="'GRM155R61A475MEAAD" xr:uid="{CAC3DE05-3435-4221-A7BF-94B4F00667FE}"/>
+    <hyperlink ref="M11" r:id="rId30" tooltip="Supplier" display="'490-14306-6-ND" xr:uid="{B989154E-7DB2-4D55-A19C-9FBA22A6BD92}"/>
+    <hyperlink ref="F12" r:id="rId31" tooltip="Component" display="'Samsung" xr:uid="{04C2BEEE-670F-4F2B-9C8E-69FCD9B93882}"/>
+    <hyperlink ref="H12" r:id="rId32" tooltip="Manufacturer" display="'CL05A106MP5NUNC" xr:uid="{070CC02C-41DF-4E02-8FBE-99A3FDB0D90F}"/>
+    <hyperlink ref="M12" r:id="rId33" tooltip="Supplier" display="'1276-1450-6-ND" xr:uid="{385A36DF-AFBD-4207-9615-1A7DF4AB359D}"/>
+    <hyperlink ref="F13" r:id="rId34" tooltip="Component" display="'Panasonic" xr:uid="{D6085F9A-379C-428E-BAE3-9A8F3765E181}"/>
+    <hyperlink ref="H13" r:id="rId35" tooltip="Manufacturer" display="'EXB-N8V162JX" xr:uid="{A7692AF1-2CED-4258-96A6-CEB1C09E882D}"/>
+    <hyperlink ref="M13" r:id="rId36" tooltip="Supplier" display="'Y10162DKR-ND" xr:uid="{216C2ED6-49D0-48F9-8525-EE0A769978BB}"/>
+    <hyperlink ref="F14" r:id="rId37" tooltip="Component" display="'Yageo" xr:uid="{7948E888-3C00-429D-A3BF-B7746755BF42}"/>
+    <hyperlink ref="H14" r:id="rId38" tooltip="Manufacturer" display="'RC0402JR-070RL" xr:uid="{478BF173-1425-449D-BE77-6C1C267D0D8C}"/>
+    <hyperlink ref="M14" r:id="rId39" tooltip="Supplier" display="'311-0.0JRDKR-ND" xr:uid="{5969C2BD-0AC6-49F1-97D8-6CFA9E31DF8C}"/>
+    <hyperlink ref="F15" r:id="rId40" tooltip="Component" display="'Yageo" xr:uid="{CE7B35DF-8380-4EE3-9B20-EEA35715B846}"/>
+    <hyperlink ref="H15" r:id="rId41" tooltip="Manufacturer" display="'RC0402FR-071KL" xr:uid="{7F3719DA-A30D-4213-A035-538861BE3A45}"/>
+    <hyperlink ref="M15" r:id="rId42" tooltip="Supplier" display="'311-1.00KLRCT-ND" xr:uid="{BCA4CE64-EC8B-4E86-AB26-870772153D6C}"/>
+    <hyperlink ref="F16" r:id="rId43" tooltip="Component" display="'Yageo" xr:uid="{9A8DF586-6284-4E2F-8271-3732976D26C7}"/>
+    <hyperlink ref="H16" r:id="rId44" tooltip="Manufacturer" display="'RC0402FR-071ML" xr:uid="{F57D22E2-5BBE-4C57-9898-D2C41E6EB98F}"/>
+    <hyperlink ref="M16" r:id="rId45" tooltip="Supplier" display="'311-1.00MLRCT-ND" xr:uid="{8664757A-9CC5-4260-A332-C6FE9AF04884}"/>
+    <hyperlink ref="F17" r:id="rId46" tooltip="Component" display="'Yageo" xr:uid="{3D4EE533-0875-4113-B05A-691E61C00B6D}"/>
+    <hyperlink ref="H17" r:id="rId47" tooltip="Manufacturer" display="'RC0402JR-071M6L" xr:uid="{B80298AA-59AC-4ADF-AFDF-E0FEAE62C931}"/>
+    <hyperlink ref="M17" r:id="rId48" tooltip="Supplier" display="'YAG3284DKR-ND" xr:uid="{628BBC61-1308-40D0-8972-510703EEEC1B}"/>
+    <hyperlink ref="F18" r:id="rId49" tooltip="Component" display="'Yageo" xr:uid="{BC4C0E33-E8B0-422E-BEEE-19435F28B379}"/>
+    <hyperlink ref="H18" r:id="rId50" tooltip="Manufacturer" display="'RC0402FR-0710KL" xr:uid="{FD226429-2B0A-48E0-981C-AEE1D6B3EC76}"/>
+    <hyperlink ref="M18" r:id="rId51" tooltip="Supplier" display="'311-10.0KLRCT-ND" xr:uid="{E6C556CF-7F93-4013-BFEC-B8E0E04E8592}"/>
+    <hyperlink ref="F19" r:id="rId52" tooltip="Component" display="'Yageo" xr:uid="{1577216F-E84B-45D2-A1AF-444EE149B227}"/>
+    <hyperlink ref="H19" r:id="rId53" tooltip="Manufacturer" display="'RC0402FR-07100KL" xr:uid="{F7BE02C1-F6D7-4B76-9B89-1A7D8939F352}"/>
+    <hyperlink ref="M19" r:id="rId54" tooltip="Supplier" display="'311-100KLRCT-ND" xr:uid="{80CBC6D3-206A-484A-8821-C3483407BA03}"/>
+    <hyperlink ref="F20" r:id="rId55" tooltip="Component" display="'Yageo" xr:uid="{A2CEFF25-926A-4746-A0E3-F9FDE8CBEEC8}"/>
+    <hyperlink ref="H20" r:id="rId56" tooltip="Manufacturer" display="'RC0402JR-07180KL" xr:uid="{B1BC142A-DDE7-4883-928D-4824CA5301B5}"/>
+    <hyperlink ref="M20" r:id="rId57" tooltip="Supplier" display="'311-180KJRDKR-ND" xr:uid="{C6A2D2E7-AC95-4604-8EA3-AF4551FE4306}"/>
+    <hyperlink ref="F21" r:id="rId58" tooltip="Component" display="'Yageo" xr:uid="{52A9A569-F75E-4A77-AAEC-04C5CC4603C8}"/>
+    <hyperlink ref="H21" r:id="rId59" tooltip="Manufacturer" display="'RC0402FR-07453KL" xr:uid="{52E656D2-2CDC-4E0A-AD6A-B1D75F228773}"/>
+    <hyperlink ref="M21" r:id="rId60" tooltip="Supplier" display="'YAG3164DKR-ND" xr:uid="{6626BBF0-7B7A-41CD-8BBA-90548E16BA6E}"/>
+    <hyperlink ref="F22" r:id="rId61" tooltip="Component" display="'Yageo" xr:uid="{24EF5CB4-A6EC-44D2-A9B8-E3AAF537348E}"/>
+    <hyperlink ref="H22" r:id="rId62" tooltip="Manufacturer" display="'RC0402JR-07470KL" xr:uid="{23BF4E8C-404C-4842-85FB-2E47A425B92C}"/>
+    <hyperlink ref="M22" r:id="rId63" tooltip="Supplier" display="'311-470KJRDKR-ND" xr:uid="{F6DA156D-D97A-4E48-8D60-4889330EE485}"/>
+    <hyperlink ref="F23" r:id="rId64" tooltip="Component" display="'TDK" xr:uid="{CEDDC157-D4A1-4556-A77E-7C6EAE910957}"/>
+    <hyperlink ref="H23" r:id="rId65" tooltip="Manufacturer" display="'MLZ1608A2R2WT000" xr:uid="{2D2B4BC9-679F-4DE2-B4F5-DE9D0184A7C8}"/>
+    <hyperlink ref="M23" r:id="rId66" tooltip="Supplier" display="'445-6385-6-ND" xr:uid="{DB1F0BE2-F401-497D-AAB9-FC3807FC6852}"/>
+    <hyperlink ref="F24" r:id="rId67" tooltip="Component" display="'TDK" xr:uid="{791EEAB2-1824-49E8-9ABC-0F3399F8269D}"/>
+    <hyperlink ref="H24" r:id="rId68" tooltip="Manufacturer" display="'MLZ1608M4R7WT000" xr:uid="{CF7DE7F4-5F59-41D8-9D2D-E9CE91F2A7A1}"/>
+    <hyperlink ref="M24" r:id="rId69" tooltip="Supplier" display="'445-6390-6-ND" xr:uid="{670EA33B-761C-4AFD-97BE-E9A5130D5A99}"/>
+    <hyperlink ref="F25" r:id="rId70" tooltip="Component" display="'Vishay Lite-On" xr:uid="{5CE21FAE-4595-433C-8FBC-8D2FA1680E1D}"/>
+    <hyperlink ref="H25" r:id="rId71" tooltip="Manufacturer" display="'LTST-C193TBKT-5A" xr:uid="{77B34C3B-96E7-4F70-9C14-BD4982BA657F}"/>
+    <hyperlink ref="M25" r:id="rId72" tooltip="Supplier" display="'160-1827-1-ND" xr:uid="{65DE869F-7072-42FA-B61E-CF5F27C68423}"/>
+    <hyperlink ref="F26" r:id="rId73" tooltip="Component" display="'Yageo" xr:uid="{5F5DB147-4A89-4BFB-A290-032C6CD67554}"/>
+    <hyperlink ref="H26" r:id="rId74" tooltip="Manufacturer" display="'CA0612KRX7R9BB102" xr:uid="{86AE2D69-E0A5-4283-9809-72316AFF3C22}"/>
+    <hyperlink ref="M26" r:id="rId75" tooltip="Supplier" display="'311-2073-6-ND" xr:uid="{34F8667E-574E-47DB-A8AB-08D12C70A231}"/>
+    <hyperlink ref="F27" r:id="rId76" tooltip="Component" display="'Murata" xr:uid="{366FDC8D-3D96-4FA7-B99C-2028502F1B61}"/>
+    <hyperlink ref="H27" r:id="rId77" tooltip="Manufacturer" display="'GRM31CR60J107ME39L" xr:uid="{7096940A-7AB7-48FA-83DD-7EDF5E095893}"/>
+    <hyperlink ref="M27" r:id="rId78" tooltip="Supplier" display="'490-4539-6-ND" xr:uid="{6D16A619-47C5-4B9D-9272-7E5263377F8A}"/>
+    <hyperlink ref="F28" r:id="rId79" tooltip="Component" display="'ECS International" xr:uid="{D961C916-1DB4-4315-8A01-50BDC5371658}"/>
+    <hyperlink ref="H28" r:id="rId80" tooltip="Manufacturer" display="'ECS-80-18-30-JGN-TR" xr:uid="{72882302-CFEA-4BFD-AC58-3378A52A5ABE}"/>
+    <hyperlink ref="M28" r:id="rId81" tooltip="Supplier" display="'XC2103DKR-ND" xr:uid="{BB1EB5A2-5B00-4460-AF64-6B923EA690D2}"/>
+    <hyperlink ref="F29" r:id="rId82" tooltip="Component" display="'ITT C&amp;K" xr:uid="{F4C834DD-3CA8-447E-A90E-07F962D60523}"/>
+    <hyperlink ref="H29" r:id="rId83" tooltip="Manufacturer" display="'PTS810SJK250SMTRLFS" xr:uid="{649EB8C1-3334-4B4F-8040-4D690FF8A91D}"/>
+    <hyperlink ref="M29" r:id="rId84" tooltip="Supplier" display="'CKN10503DKR-ND" xr:uid="{6093BA90-C2E9-48EF-8EBB-56C3FD665D8E}"/>
+    <hyperlink ref="F30" r:id="rId85" tooltip="Component" display="'Diodes" xr:uid="{3A8CEB50-6176-4EF7-9F76-DC5C3780C6E1}"/>
+    <hyperlink ref="H30" r:id="rId86" tooltip="Manufacturer" display="'AP3417CKTR-G1" xr:uid="{6DE50ABC-80E5-4DE5-8747-61540A9A651C}"/>
+    <hyperlink ref="M30" r:id="rId87" tooltip="Supplier" display="'AP3417CKTR-G1DIDKR-ND" xr:uid="{6A8F5B4E-3DD1-4843-A349-064989621559}"/>
+    <hyperlink ref="F31" r:id="rId88" tooltip="Component" display="'Microchip" xr:uid="{1A39FDC7-5764-42F8-A236-31238528DF0E}"/>
+    <hyperlink ref="H31" r:id="rId89" tooltip="Manufacturer" display="'PIC32MX250F128B-I/SS" xr:uid="{7F5997C1-1ACC-4696-8B6E-BA8CC871A251}"/>
+    <hyperlink ref="M31" r:id="rId90" tooltip="Supplier" display="'PIC32MX250F128B-I/SS-ND" xr:uid="{4B32E7D1-AB08-4A2A-86E7-7FDFE9AB33D3}"/>
+    <hyperlink ref="F32" r:id="rId91" tooltip="Component" display="'Vishay Semiconductors" xr:uid="{2EC94D82-6DF9-4218-A104-15E623EB7CB6}"/>
+    <hyperlink ref="H32" r:id="rId92" tooltip="Manufacturer" display="'GSOT04C-G3-08" xr:uid="{56FA58A5-3338-4EE8-A117-C851152CC9DF}"/>
+    <hyperlink ref="M32" r:id="rId93" tooltip="Supplier" display="'GSOT04C-G3-08GIDKR-ND" xr:uid="{E94A7C62-7F64-42C4-92D7-4690D832686E}"/>
+    <hyperlink ref="F33" r:id="rId94" tooltip="Component" display="'Texas Instruments" xr:uid="{F9DDCEE2-D86C-4B5A-AEAB-5E54C2242ED3}"/>
+    <hyperlink ref="H33" r:id="rId95" tooltip="Manufacturer" display="'ADS1299IPAGR" xr:uid="{9ECE9E1E-6812-46BE-BB6B-1F5B4A67D65D}"/>
+    <hyperlink ref="M33" r:id="rId96" tooltip="Supplier" display="'296-34818-6-ND" xr:uid="{3831F3AE-DDB7-46B3-80D4-7B2E3B9E3AAB}"/>
+    <hyperlink ref="F34" r:id="rId97" tooltip="Component" display="'Texas Instruments" xr:uid="{720E006E-CC79-4BBC-9F66-193036CDA25E}"/>
+    <hyperlink ref="H34" r:id="rId98" tooltip="Manufacturer" display="'TPS61073DDCR" xr:uid="{BE0B6B04-33DF-4A86-BBBD-F1778F2EAF39}"/>
+    <hyperlink ref="M34" r:id="rId99" tooltip="Supplier" display="'296-21898-2-ND" xr:uid="{178B7C32-3601-47A6-8D3C-3B242819B280}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId55"/>
+  <pageSetup orientation="portrait" r:id="rId100"/>
 </worksheet>
 </file>